--- a/gameData/shared/PvE.xlsx
+++ b/gameData/shared/PvE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="260" windowWidth="31820" windowHeight="19500" tabRatio="566"/>
+    <workbookView xWindow="2780" yWindow="260" windowWidth="31820" windowHeight="19500" tabRatio="566" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -2457,15 +2457,15 @@
   </si>
   <si>
     <t>STR_sectionName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>STR_rewards</t>
@@ -4236,15 +4236,15 @@
   </si>
   <si>
     <t>STR_stageName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>STR_needStar</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>STR_rewards</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>soldierMaterials:heroBones:24,soldierMaterials:magicBox:24,items:stoneBonus_1:1</t>
@@ -4253,9 +4253,6 @@
     <t>soldierMaterials:heroBones:24,soldierMaterials:soulStone:24,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:36,soldierMaterials:deathHand:36,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:36,soldierMaterials:soulStone:36,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4265,9 +4262,6 @@
     <t>soldierMaterials:soulStone:68,soldierMaterials:deathHand:68,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:102,soldierMaterials:magicBox:102,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:102,soldierMaterials:soulStone:102,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4277,9 +4271,6 @@
     <t>soldierMaterials:magicBox:120,soldierMaterials:soulStone:120,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:170,soldierMaterials:deathHand:170,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:170,soldierMaterials:deathHand:170,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4289,9 +4280,6 @@
     <t>soldierMaterials:heroBones:160,soldierMaterials:soulStone:160,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:240,soldierMaterials:deathHand:240,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:240,soldierMaterials:soulStone:240,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4301,9 +4289,6 @@
     <t>soldierMaterials:soulStone:210,soldierMaterials:deathHand:210,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:310,soldierMaterials:magicBox:310,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:310,soldierMaterials:soulStone:310,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4313,9 +4298,6 @@
     <t>soldierMaterials:magicBox:250,soldierMaterials:soulStone:250,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:370,soldierMaterials:deathHand:370,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:370,soldierMaterials:deathHand:370,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4325,9 +4307,6 @@
     <t>soldierMaterials:heroBones:290,soldierMaterials:soulStone:290,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:440,soldierMaterials:deathHand:440,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:440,soldierMaterials:soulStone:440,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4337,9 +4316,6 @@
     <t>soldierMaterials:soulStone:340,soldierMaterials:deathHand:340,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:500,soldierMaterials:magicBox:500,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:500,soldierMaterials:soulStone:500,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4349,9 +4325,6 @@
     <t>soldierMaterials:magicBox:380,soldierMaterials:soulStone:380,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:570,soldierMaterials:deathHand:570,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:570,soldierMaterials:deathHand:570,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4361,9 +4334,6 @@
     <t>soldierMaterials:heroBones:430,soldierMaterials:soulStone:430,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:640,soldierMaterials:deathHand:640,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:640,soldierMaterials:soulStone:640,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4373,9 +4343,6 @@
     <t>soldierMaterials:soulStone:470,soldierMaterials:deathHand:470,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:700,soldierMaterials:magicBox:700,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:700,soldierMaterials:soulStone:700,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4385,9 +4352,6 @@
     <t>soldierMaterials:magicBox:510,soldierMaterials:soulStone:510,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:770,soldierMaterials:deathHand:770,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:770,soldierMaterials:deathHand:770,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4397,9 +4361,6 @@
     <t>soldierMaterials:heroBones:560,soldierMaterials:soulStone:560,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:840,soldierMaterials:deathHand:840,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:840,soldierMaterials:soulStone:840,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4409,9 +4370,6 @@
     <t>soldierMaterials:soulStone:600,soldierMaterials:deathHand:600,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:900,soldierMaterials:magicBox:900,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:900,soldierMaterials:soulStone:900,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4421,9 +4379,6 @@
     <t>soldierMaterials:magicBox:650,soldierMaterials:soulStone:650,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:970,soldierMaterials:deathHand:970,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:970,soldierMaterials:deathHand:970,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4433,9 +4388,6 @@
     <t>soldierMaterials:heroBones:690,soldierMaterials:soulStone:690,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:1030,soldierMaterials:deathHand:1030,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:1030,soldierMaterials:soulStone:1030,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4445,9 +4397,6 @@
     <t>soldierMaterials:soulStone:730,soldierMaterials:deathHand:730,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:1100,soldierMaterials:magicBox:1100,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:1100,soldierMaterials:soulStone:1100,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4457,9 +4406,6 @@
     <t>soldierMaterials:magicBox:780,soldierMaterials:soulStone:780,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:1170,soldierMaterials:deathHand:1170,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:1170,soldierMaterials:deathHand:1170,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4469,9 +4415,6 @@
     <t>soldierMaterials:heroBones:820,soldierMaterials:soulStone:820,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:1230,soldierMaterials:deathHand:1230,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:1230,soldierMaterials:soulStone:1230,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4481,9 +4424,6 @@
     <t>soldierMaterials:soulStone:870,soldierMaterials:deathHand:870,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:1300,soldierMaterials:magicBox:1300,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:1300,soldierMaterials:soulStone:1300,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4493,9 +4433,6 @@
     <t>soldierMaterials:magicBox:910,soldierMaterials:soulStone:910,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:1360,soldierMaterials:deathHand:1360,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:1360,soldierMaterials:deathHand:1360,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4505,9 +4442,6 @@
     <t>soldierMaterials:heroBones:960,soldierMaterials:soulStone:960,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:1430,soldierMaterials:deathHand:1430,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:magicBox:1430,soldierMaterials:soulStone:1430,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4517,9 +4451,6 @@
     <t>soldierMaterials:soulStone:1000,soldierMaterials:deathHand:1000,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:heroBones:1500,soldierMaterials:magicBox:1500,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:heroBones:1500,soldierMaterials:soulStone:1500,items:ironBonus_1:1</t>
   </si>
   <si>
@@ -4529,30 +4460,27 @@
     <t>soldierMaterials:magicBox:1040,soldierMaterials:soulStone:1040,items:woodBonus_1:1</t>
   </si>
   <si>
-    <t>soldierMaterials:magicBox:1560,soldierMaterials:deathHand:1560,items:foodBous_1:1</t>
-  </si>
-  <si>
     <t>soldierMaterials:soulStone:1560,soldierMaterials:deathHand:1560,items:ironBonus_1:1</t>
   </si>
   <si>
     <t>BOOL_starAble</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_sweepAble</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>INT_staminaUsed</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>INT_maxFightCount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>STR_terrain</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>iceField</t>
@@ -4661,6 +4589,78 @@
   </si>
   <si>
     <t>greenDragon_4_39,ballista_1_4797,sentinel_1_14391,horseArcher_1_4797,ranger_1_4797</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:36,soldierMaterials:deathHand:36,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:102,soldierMaterials:magicBox:102,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:170,soldierMaterials:deathHand:170,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:240,soldierMaterials:deathHand:240,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:310,soldierMaterials:magicBox:310,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:370,soldierMaterials:deathHand:370,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:440,soldierMaterials:deathHand:440,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:500,soldierMaterials:magicBox:500,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:570,soldierMaterials:deathHand:570,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:640,soldierMaterials:deathHand:640,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:700,soldierMaterials:magicBox:700,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:770,soldierMaterials:deathHand:770,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:840,soldierMaterials:deathHand:840,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:900,soldierMaterials:magicBox:900,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:970,soldierMaterials:deathHand:970,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:1030,soldierMaterials:deathHand:1030,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:1100,soldierMaterials:magicBox:1100,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:1170,soldierMaterials:deathHand:1170,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:1230,soldierMaterials:deathHand:1230,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:1300,soldierMaterials:magicBox:1300,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:1360,soldierMaterials:deathHand:1360,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:1430,soldierMaterials:deathHand:1430,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:heroBones:1500,soldierMaterials:magicBox:1500,items:foodBonus_1:1</t>
+  </si>
+  <si>
+    <t>soldierMaterials:magicBox:1560,soldierMaterials:deathHand:1560,items:foodBonus_1:1</t>
   </si>
 </sst>
 </file>
@@ -4670,11 +4670,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4863,928 +4871,931 @@
   </borders>
   <cellStyleXfs count="851">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="476" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="476" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="476" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="476" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="476" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="476" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="851">
@@ -7087,7 +7098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7106,19 +7117,19 @@
         <v>808</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1500</v>
+        <v>1476</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1499</v>
+        <v>1475</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1501</v>
+        <v>1477</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1502</v>
+        <v>1478</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>1503</v>
+        <v>1479</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>24</v>
@@ -7144,7 +7155,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>505</v>
@@ -7170,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>506</v>
@@ -7196,7 +7207,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>813</v>
@@ -7222,7 +7233,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>507</v>
@@ -7248,7 +7259,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>508</v>
@@ -7274,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>817</v>
@@ -7300,7 +7311,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>509</v>
@@ -7326,7 +7337,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>510</v>
@@ -7352,7 +7363,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>820</v>
@@ -7378,7 +7389,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>511</v>
@@ -7404,7 +7415,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>512</v>
@@ -7430,7 +7441,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>824</v>
@@ -7456,7 +7467,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>513</v>
@@ -7482,10 +7493,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1507</v>
+        <v>1483</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>826</v>
@@ -7508,7 +7519,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>827</v>
@@ -7534,7 +7545,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>514</v>
@@ -7560,7 +7571,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>515</v>
@@ -7586,7 +7597,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>831</v>
@@ -7612,7 +7623,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>516</v>
@@ -7638,7 +7649,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>517</v>
@@ -7664,7 +7675,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>834</v>
@@ -7690,7 +7701,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>518</v>
@@ -7716,7 +7727,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>519</v>
@@ -7742,7 +7753,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>838</v>
@@ -7768,7 +7779,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>520</v>
@@ -7794,7 +7805,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>521</v>
@@ -7820,7 +7831,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>841</v>
@@ -7846,7 +7857,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>522</v>
@@ -7872,7 +7883,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>523</v>
@@ -7898,7 +7909,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>845</v>
@@ -7924,7 +7935,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>524</v>
@@ -7950,7 +7961,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>525</v>
@@ -7976,7 +7987,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>848</v>
@@ -8002,10 +8013,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>1508</v>
+        <v>1484</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>850</v>
@@ -8028,7 +8039,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>526</v>
@@ -8054,7 +8065,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>852</v>
@@ -8080,7 +8091,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>527</v>
@@ -8106,10 +8117,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>1509</v>
+        <v>1485</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>854</v>
@@ -8132,7 +8143,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>855</v>
@@ -8158,7 +8169,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>528</v>
@@ -8184,7 +8195,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>529</v>
@@ -8210,7 +8221,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>859</v>
@@ -8236,7 +8247,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>530</v>
@@ -8262,7 +8273,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>531</v>
@@ -8288,7 +8299,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>862</v>
@@ -8314,7 +8325,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>532</v>
@@ -8340,7 +8351,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>533</v>
@@ -8366,7 +8377,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>866</v>
@@ -8392,7 +8403,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>534</v>
@@ -8418,7 +8429,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>535</v>
@@ -8444,7 +8455,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>869</v>
@@ -8470,7 +8481,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>536</v>
@@ -8496,7 +8507,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>537</v>
@@ -8522,7 +8533,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>873</v>
@@ -8548,7 +8559,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>538</v>
@@ -8574,7 +8585,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G57" s="17" t="s">
         <v>539</v>
@@ -8600,7 +8611,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>876</v>
@@ -8626,10 +8637,10 @@
         <v>10</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>1510</v>
+        <v>1486</v>
       </c>
       <c r="H59" s="16" t="s">
         <v>878</v>
@@ -8652,7 +8663,7 @@
         <v>10</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>540</v>
@@ -8678,7 +8689,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>880</v>
@@ -8704,7 +8715,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>541</v>
@@ -8730,7 +8741,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G63" s="17" t="s">
         <v>542</v>
@@ -8756,7 +8767,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>883</v>
@@ -8782,7 +8793,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G65" s="17" t="s">
         <v>543</v>
@@ -8808,7 +8819,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>544</v>
@@ -8834,7 +8845,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>887</v>
@@ -8860,7 +8871,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>545</v>
@@ -8886,7 +8897,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>546</v>
@@ -8912,7 +8923,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>890</v>
@@ -8938,7 +8949,7 @@
         <v>10</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G71" s="17" t="s">
         <v>547</v>
@@ -8964,7 +8975,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>548</v>
@@ -8990,7 +9001,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>894</v>
@@ -9016,7 +9027,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>549</v>
@@ -9042,10 +9053,10 @@
         <v>10</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="H75" s="16" t="s">
         <v>896</v>
@@ -9068,7 +9079,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>897</v>
@@ -9094,7 +9105,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>550</v>
@@ -9120,7 +9131,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>551</v>
@@ -9146,7 +9157,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>901</v>
@@ -9172,7 +9183,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>552</v>
@@ -9198,7 +9209,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>553</v>
@@ -9224,7 +9235,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>904</v>
@@ -9250,7 +9261,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>554</v>
@@ -9276,7 +9287,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>555</v>
@@ -9302,7 +9313,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>908</v>
@@ -9328,7 +9339,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G86" s="17" t="s">
         <v>556</v>
@@ -9354,7 +9365,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>557</v>
@@ -9380,7 +9391,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>911</v>
@@ -9406,7 +9417,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>558</v>
@@ -9432,7 +9443,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>559</v>
@@ -9458,7 +9469,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G91" s="17" t="s">
         <v>915</v>
@@ -9484,7 +9495,7 @@
         <v>10</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>560</v>
@@ -9510,7 +9521,7 @@
         <v>10</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G93" s="17" t="s">
         <v>561</v>
@@ -9536,7 +9547,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G94" s="17" t="s">
         <v>918</v>
@@ -9562,10 +9573,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>1512</v>
+        <v>1488</v>
       </c>
       <c r="H95" s="16" t="s">
         <v>920</v>
@@ -9588,7 +9599,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G96" s="17" t="s">
         <v>562</v>
@@ -9614,7 +9625,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G97" s="17" t="s">
         <v>922</v>
@@ -9640,7 +9651,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>563</v>
@@ -9666,10 +9677,10 @@
         <v>10</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>1513</v>
+        <v>1489</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>924</v>
@@ -9692,7 +9703,7 @@
         <v>10</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>925</v>
@@ -9718,7 +9729,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>564</v>
@@ -9744,7 +9755,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>565</v>
@@ -9770,7 +9781,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G103" s="17" t="s">
         <v>929</v>
@@ -9796,7 +9807,7 @@
         <v>10</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G104" s="17" t="s">
         <v>566</v>
@@ -9822,7 +9833,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G105" s="17" t="s">
         <v>567</v>
@@ -9848,7 +9859,7 @@
         <v>10</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>932</v>
@@ -9874,7 +9885,7 @@
         <v>10</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>568</v>
@@ -9900,7 +9911,7 @@
         <v>10</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>569</v>
@@ -9926,7 +9937,7 @@
         <v>10</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G109" s="17" t="s">
         <v>936</v>
@@ -9952,7 +9963,7 @@
         <v>10</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G110" s="17" t="s">
         <v>570</v>
@@ -9978,7 +9989,7 @@
         <v>10</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G111" s="17" t="s">
         <v>571</v>
@@ -10004,7 +10015,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G112" s="17" t="s">
         <v>939</v>
@@ -10030,7 +10041,7 @@
         <v>10</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G113" s="17" t="s">
         <v>572</v>
@@ -10056,7 +10067,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G114" s="17" t="s">
         <v>573</v>
@@ -10082,7 +10093,7 @@
         <v>10</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G115" s="17" t="s">
         <v>943</v>
@@ -10108,7 +10119,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G116" s="17" t="s">
         <v>574</v>
@@ -10134,7 +10145,7 @@
         <v>10</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G117" s="17" t="s">
         <v>575</v>
@@ -10160,7 +10171,7 @@
         <v>10</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G118" s="17" t="s">
         <v>946</v>
@@ -10186,10 +10197,10 @@
         <v>10</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>1514</v>
+        <v>1490</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>948</v>
@@ -10212,7 +10223,7 @@
         <v>10</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G120" s="17" t="s">
         <v>576</v>
@@ -10238,7 +10249,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G121" s="17" t="s">
         <v>950</v>
@@ -10264,7 +10275,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G122" s="17" t="s">
         <v>577</v>
@@ -10290,7 +10301,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G123" s="17" t="s">
         <v>578</v>
@@ -10316,7 +10327,7 @@
         <v>10</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G124" s="17" t="s">
         <v>953</v>
@@ -10342,7 +10353,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G125" s="17" t="s">
         <v>579</v>
@@ -10368,7 +10379,7 @@
         <v>10</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G126" s="17" t="s">
         <v>580</v>
@@ -10394,7 +10405,7 @@
         <v>10</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G127" s="17" t="s">
         <v>957</v>
@@ -10420,7 +10431,7 @@
         <v>10</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G128" s="17" t="s">
         <v>581</v>
@@ -10446,7 +10457,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G129" s="17" t="s">
         <v>582</v>
@@ -10472,7 +10483,7 @@
         <v>10</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G130" s="17" t="s">
         <v>960</v>
@@ -10498,7 +10509,7 @@
         <v>10</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G131" s="17" t="s">
         <v>583</v>
@@ -10524,7 +10535,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G132" s="17" t="s">
         <v>584</v>
@@ -10550,7 +10561,7 @@
         <v>10</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G133" s="17" t="s">
         <v>964</v>
@@ -10576,7 +10587,7 @@
         <v>10</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G134" s="17" t="s">
         <v>585</v>
@@ -10602,10 +10613,10 @@
         <v>10</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>1515</v>
+        <v>1491</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>966</v>
@@ -10628,7 +10639,7 @@
         <v>10</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G136" s="17" t="s">
         <v>967</v>
@@ -10654,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G137" s="17" t="s">
         <v>586</v>
@@ -10680,7 +10691,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G138" s="17" t="s">
         <v>587</v>
@@ -10706,7 +10717,7 @@
         <v>10</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G139" s="17" t="s">
         <v>971</v>
@@ -10732,7 +10743,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G140" s="17" t="s">
         <v>588</v>
@@ -10758,7 +10769,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G141" s="17" t="s">
         <v>589</v>
@@ -10784,7 +10795,7 @@
         <v>10</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G142" s="17" t="s">
         <v>974</v>
@@ -10810,7 +10821,7 @@
         <v>10</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G143" s="17" t="s">
         <v>590</v>
@@ -10836,7 +10847,7 @@
         <v>10</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G144" s="17" t="s">
         <v>591</v>
@@ -10862,7 +10873,7 @@
         <v>10</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G145" s="17" t="s">
         <v>978</v>
@@ -10888,7 +10899,7 @@
         <v>10</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G146" s="17" t="s">
         <v>592</v>
@@ -10914,7 +10925,7 @@
         <v>10</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G147" s="17" t="s">
         <v>593</v>
@@ -10940,7 +10951,7 @@
         <v>10</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G148" s="17" t="s">
         <v>981</v>
@@ -10966,7 +10977,7 @@
         <v>10</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G149" s="17" t="s">
         <v>594</v>
@@ -10992,7 +11003,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G150" s="17" t="s">
         <v>595</v>
@@ -11018,7 +11029,7 @@
         <v>10</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G151" s="17" t="s">
         <v>985</v>
@@ -11044,7 +11055,7 @@
         <v>10</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G152" s="17" t="s">
         <v>596</v>
@@ -11070,7 +11081,7 @@
         <v>10</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G153" s="17" t="s">
         <v>597</v>
@@ -11096,7 +11107,7 @@
         <v>10</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G154" s="17" t="s">
         <v>988</v>
@@ -11122,10 +11133,10 @@
         <v>10</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>1516</v>
+        <v>1492</v>
       </c>
       <c r="H155" s="16" t="s">
         <v>990</v>
@@ -11148,7 +11159,7 @@
         <v>10</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G156" s="17" t="s">
         <v>598</v>
@@ -11174,7 +11185,7 @@
         <v>10</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G157" s="17" t="s">
         <v>992</v>
@@ -11200,7 +11211,7 @@
         <v>10</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G158" s="17" t="s">
         <v>599</v>
@@ -11226,10 +11237,10 @@
         <v>10</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>1517</v>
+        <v>1493</v>
       </c>
       <c r="H159" s="16" t="s">
         <v>994</v>
@@ -11252,7 +11263,7 @@
         <v>10</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G160" s="17" t="s">
         <v>995</v>
@@ -11278,7 +11289,7 @@
         <v>10</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G161" s="17" t="s">
         <v>600</v>
@@ -11304,7 +11315,7 @@
         <v>10</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G162" s="17" t="s">
         <v>601</v>
@@ -11330,7 +11341,7 @@
         <v>10</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G163" s="17" t="s">
         <v>999</v>
@@ -11356,7 +11367,7 @@
         <v>10</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G164" s="17" t="s">
         <v>602</v>
@@ -11382,7 +11393,7 @@
         <v>10</v>
       </c>
       <c r="F165" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G165" s="17" t="s">
         <v>603</v>
@@ -11408,7 +11419,7 @@
         <v>10</v>
       </c>
       <c r="F166" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G166" s="17" t="s">
         <v>1002</v>
@@ -11434,7 +11445,7 @@
         <v>10</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G167" s="17" t="s">
         <v>604</v>
@@ -11460,7 +11471,7 @@
         <v>10</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G168" s="17" t="s">
         <v>605</v>
@@ -11486,7 +11497,7 @@
         <v>10</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G169" s="17" t="s">
         <v>1006</v>
@@ -11512,7 +11523,7 @@
         <v>10</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G170" s="17" t="s">
         <v>606</v>
@@ -11538,7 +11549,7 @@
         <v>10</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G171" s="17" t="s">
         <v>607</v>
@@ -11564,7 +11575,7 @@
         <v>10</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G172" s="17" t="s">
         <v>1009</v>
@@ -11590,7 +11601,7 @@
         <v>10</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G173" s="17" t="s">
         <v>608</v>
@@ -11616,7 +11627,7 @@
         <v>10</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G174" s="17" t="s">
         <v>609</v>
@@ -11642,7 +11653,7 @@
         <v>10</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G175" s="17" t="s">
         <v>1013</v>
@@ -11668,7 +11679,7 @@
         <v>10</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G176" s="17" t="s">
         <v>610</v>
@@ -11694,7 +11705,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G177" s="17" t="s">
         <v>611</v>
@@ -11720,7 +11731,7 @@
         <v>10</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G178" s="17" t="s">
         <v>1016</v>
@@ -11746,10 +11757,10 @@
         <v>10</v>
       </c>
       <c r="F179" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>1518</v>
+        <v>1494</v>
       </c>
       <c r="H179" s="16" t="s">
         <v>1018</v>
@@ -11772,7 +11783,7 @@
         <v>10</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G180" s="17" t="s">
         <v>612</v>
@@ -11798,7 +11809,7 @@
         <v>10</v>
       </c>
       <c r="F181" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G181" s="17" t="s">
         <v>1020</v>
@@ -11824,7 +11835,7 @@
         <v>10</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G182" s="17" t="s">
         <v>613</v>
@@ -11850,7 +11861,7 @@
         <v>10</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G183" s="17" t="s">
         <v>614</v>
@@ -11876,7 +11887,7 @@
         <v>10</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G184" s="17" t="s">
         <v>1023</v>
@@ -11902,7 +11913,7 @@
         <v>10</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G185" s="17" t="s">
         <v>615</v>
@@ -11928,7 +11939,7 @@
         <v>10</v>
       </c>
       <c r="F186" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G186" s="17" t="s">
         <v>616</v>
@@ -11954,7 +11965,7 @@
         <v>10</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G187" s="17" t="s">
         <v>1027</v>
@@ -11980,7 +11991,7 @@
         <v>10</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G188" s="17" t="s">
         <v>617</v>
@@ -12006,7 +12017,7 @@
         <v>10</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G189" s="17" t="s">
         <v>618</v>
@@ -12032,7 +12043,7 @@
         <v>10</v>
       </c>
       <c r="F190" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G190" s="17" t="s">
         <v>1030</v>
@@ -12058,7 +12069,7 @@
         <v>10</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G191" s="17" t="s">
         <v>619</v>
@@ -12084,7 +12095,7 @@
         <v>10</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G192" s="17" t="s">
         <v>620</v>
@@ -12110,7 +12121,7 @@
         <v>10</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G193" s="17" t="s">
         <v>1034</v>
@@ -12136,7 +12147,7 @@
         <v>10</v>
       </c>
       <c r="F194" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G194" s="17" t="s">
         <v>621</v>
@@ -12162,10 +12173,10 @@
         <v>10</v>
       </c>
       <c r="F195" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G195" s="17" t="s">
-        <v>1519</v>
+        <v>1495</v>
       </c>
       <c r="H195" s="16" t="s">
         <v>1036</v>
@@ -12188,7 +12199,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G196" s="17" t="s">
         <v>1037</v>
@@ -12214,7 +12225,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G197" s="17" t="s">
         <v>622</v>
@@ -12240,7 +12251,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G198" s="17" t="s">
         <v>623</v>
@@ -12266,7 +12277,7 @@
         <v>10</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G199" s="17" t="s">
         <v>1041</v>
@@ -12292,7 +12303,7 @@
         <v>10</v>
       </c>
       <c r="F200" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G200" s="17" t="s">
         <v>624</v>
@@ -12318,7 +12329,7 @@
         <v>10</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G201" s="17" t="s">
         <v>625</v>
@@ -12344,7 +12355,7 @@
         <v>10</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G202" s="17" t="s">
         <v>1044</v>
@@ -12370,7 +12381,7 @@
         <v>10</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G203" s="17" t="s">
         <v>626</v>
@@ -12396,7 +12407,7 @@
         <v>10</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G204" s="17" t="s">
         <v>627</v>
@@ -12422,7 +12433,7 @@
         <v>10</v>
       </c>
       <c r="F205" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G205" s="17" t="s">
         <v>1048</v>
@@ -12448,7 +12459,7 @@
         <v>10</v>
       </c>
       <c r="F206" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G206" s="17" t="s">
         <v>628</v>
@@ -12474,7 +12485,7 @@
         <v>10</v>
       </c>
       <c r="F207" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G207" s="17" t="s">
         <v>629</v>
@@ -12500,7 +12511,7 @@
         <v>10</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G208" s="17" t="s">
         <v>1051</v>
@@ -12526,7 +12537,7 @@
         <v>10</v>
       </c>
       <c r="F209" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G209" s="17" t="s">
         <v>630</v>
@@ -12552,7 +12563,7 @@
         <v>10</v>
       </c>
       <c r="F210" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G210" s="17" t="s">
         <v>631</v>
@@ -12578,7 +12589,7 @@
         <v>10</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G211" s="17" t="s">
         <v>1055</v>
@@ -12604,7 +12615,7 @@
         <v>10</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G212" s="17" t="s">
         <v>632</v>
@@ -12630,7 +12641,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G213" s="17" t="s">
         <v>633</v>
@@ -12656,7 +12667,7 @@
         <v>10</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G214" s="17" t="s">
         <v>1058</v>
@@ -12682,10 +12693,10 @@
         <v>10</v>
       </c>
       <c r="F215" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>1520</v>
+        <v>1496</v>
       </c>
       <c r="H215" s="16" t="s">
         <v>1060</v>
@@ -12708,7 +12719,7 @@
         <v>10</v>
       </c>
       <c r="F216" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G216" s="17" t="s">
         <v>634</v>
@@ -12734,7 +12745,7 @@
         <v>10</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G217" s="17" t="s">
         <v>1062</v>
@@ -12760,7 +12771,7 @@
         <v>10</v>
       </c>
       <c r="F218" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G218" s="17" t="s">
         <v>635</v>
@@ -12786,10 +12797,10 @@
         <v>10</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>1521</v>
+        <v>1497</v>
       </c>
       <c r="H219" s="16" t="s">
         <v>1064</v>
@@ -12812,7 +12823,7 @@
         <v>10</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G220" s="17" t="s">
         <v>1065</v>
@@ -12838,7 +12849,7 @@
         <v>10</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G221" s="17" t="s">
         <v>636</v>
@@ -12864,7 +12875,7 @@
         <v>10</v>
       </c>
       <c r="F222" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G222" s="17" t="s">
         <v>637</v>
@@ -12890,7 +12901,7 @@
         <v>10</v>
       </c>
       <c r="F223" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G223" s="17" t="s">
         <v>1069</v>
@@ -12916,7 +12927,7 @@
         <v>10</v>
       </c>
       <c r="F224" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G224" s="17" t="s">
         <v>638</v>
@@ -12942,7 +12953,7 @@
         <v>10</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G225" s="17" t="s">
         <v>639</v>
@@ -12968,7 +12979,7 @@
         <v>10</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G226" s="17" t="s">
         <v>1072</v>
@@ -12994,7 +13005,7 @@
         <v>10</v>
       </c>
       <c r="F227" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G227" s="17" t="s">
         <v>640</v>
@@ -13020,7 +13031,7 @@
         <v>10</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G228" s="17" t="s">
         <v>641</v>
@@ -13046,7 +13057,7 @@
         <v>10</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G229" s="17" t="s">
         <v>1076</v>
@@ -13072,7 +13083,7 @@
         <v>10</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G230" s="17" t="s">
         <v>642</v>
@@ -13098,7 +13109,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G231" s="17" t="s">
         <v>643</v>
@@ -13124,7 +13135,7 @@
         <v>10</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G232" s="17" t="s">
         <v>1079</v>
@@ -13150,7 +13161,7 @@
         <v>10</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G233" s="17" t="s">
         <v>644</v>
@@ -13176,7 +13187,7 @@
         <v>10</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G234" s="17" t="s">
         <v>645</v>
@@ -13202,7 +13213,7 @@
         <v>10</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G235" s="17" t="s">
         <v>1083</v>
@@ -13228,7 +13239,7 @@
         <v>10</v>
       </c>
       <c r="F236" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G236" s="17" t="s">
         <v>646</v>
@@ -13254,7 +13265,7 @@
         <v>10</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G237" s="17" t="s">
         <v>647</v>
@@ -13280,7 +13291,7 @@
         <v>10</v>
       </c>
       <c r="F238" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G238" s="17" t="s">
         <v>1086</v>
@@ -13306,10 +13317,10 @@
         <v>10</v>
       </c>
       <c r="F239" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>1522</v>
+        <v>1498</v>
       </c>
       <c r="H239" s="16" t="s">
         <v>1088</v>
@@ -13332,7 +13343,7 @@
         <v>10</v>
       </c>
       <c r="F240" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G240" s="17" t="s">
         <v>648</v>
@@ -13358,7 +13369,7 @@
         <v>10</v>
       </c>
       <c r="F241" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G241" s="17" t="s">
         <v>1090</v>
@@ -13384,7 +13395,7 @@
         <v>10</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G242" s="17" t="s">
         <v>649</v>
@@ -13410,7 +13421,7 @@
         <v>10</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G243" s="17" t="s">
         <v>650</v>
@@ -13436,7 +13447,7 @@
         <v>10</v>
       </c>
       <c r="F244" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G244" s="17" t="s">
         <v>1093</v>
@@ -13462,7 +13473,7 @@
         <v>10</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G245" s="17" t="s">
         <v>651</v>
@@ -13488,7 +13499,7 @@
         <v>10</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G246" s="17" t="s">
         <v>652</v>
@@ -13514,7 +13525,7 @@
         <v>10</v>
       </c>
       <c r="F247" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G247" s="17" t="s">
         <v>1097</v>
@@ -13540,7 +13551,7 @@
         <v>10</v>
       </c>
       <c r="F248" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G248" s="17" t="s">
         <v>653</v>
@@ -13566,7 +13577,7 @@
         <v>10</v>
       </c>
       <c r="F249" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G249" s="17" t="s">
         <v>654</v>
@@ -13592,7 +13603,7 @@
         <v>10</v>
       </c>
       <c r="F250" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G250" s="17" t="s">
         <v>1100</v>
@@ -13618,7 +13629,7 @@
         <v>10</v>
       </c>
       <c r="F251" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G251" s="17" t="s">
         <v>655</v>
@@ -13644,7 +13655,7 @@
         <v>10</v>
       </c>
       <c r="F252" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G252" s="17" t="s">
         <v>656</v>
@@ -13670,7 +13681,7 @@
         <v>10</v>
       </c>
       <c r="F253" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G253" s="17" t="s">
         <v>1104</v>
@@ -13696,7 +13707,7 @@
         <v>10</v>
       </c>
       <c r="F254" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G254" s="17" t="s">
         <v>657</v>
@@ -13722,10 +13733,10 @@
         <v>10</v>
       </c>
       <c r="F255" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>1523</v>
+        <v>1499</v>
       </c>
       <c r="H255" s="16" t="s">
         <v>1106</v>
@@ -13748,7 +13759,7 @@
         <v>10</v>
       </c>
       <c r="F256" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G256" s="17" t="s">
         <v>1107</v>
@@ -13774,7 +13785,7 @@
         <v>10</v>
       </c>
       <c r="F257" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G257" s="17" t="s">
         <v>658</v>
@@ -13800,7 +13811,7 @@
         <v>10</v>
       </c>
       <c r="F258" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G258" s="17" t="s">
         <v>659</v>
@@ -13826,7 +13837,7 @@
         <v>10</v>
       </c>
       <c r="F259" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G259" s="17" t="s">
         <v>1111</v>
@@ -13852,7 +13863,7 @@
         <v>10</v>
       </c>
       <c r="F260" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G260" s="17" t="s">
         <v>660</v>
@@ -13878,7 +13889,7 @@
         <v>10</v>
       </c>
       <c r="F261" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G261" s="17" t="s">
         <v>661</v>
@@ -13904,7 +13915,7 @@
         <v>10</v>
       </c>
       <c r="F262" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G262" s="17" t="s">
         <v>1114</v>
@@ -13930,7 +13941,7 @@
         <v>10</v>
       </c>
       <c r="F263" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G263" s="17" t="s">
         <v>662</v>
@@ -13956,7 +13967,7 @@
         <v>10</v>
       </c>
       <c r="F264" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G264" s="17" t="s">
         <v>663</v>
@@ -13982,7 +13993,7 @@
         <v>10</v>
       </c>
       <c r="F265" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G265" s="17" t="s">
         <v>1118</v>
@@ -14008,7 +14019,7 @@
         <v>10</v>
       </c>
       <c r="F266" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G266" s="17" t="s">
         <v>664</v>
@@ -14034,7 +14045,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G267" s="17" t="s">
         <v>665</v>
@@ -14060,7 +14071,7 @@
         <v>10</v>
       </c>
       <c r="F268" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G268" s="17" t="s">
         <v>1121</v>
@@ -14086,7 +14097,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G269" s="17" t="s">
         <v>666</v>
@@ -14112,7 +14123,7 @@
         <v>10</v>
       </c>
       <c r="F270" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G270" s="17" t="s">
         <v>667</v>
@@ -14138,7 +14149,7 @@
         <v>10</v>
       </c>
       <c r="F271" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G271" s="17" t="s">
         <v>1125</v>
@@ -14164,7 +14175,7 @@
         <v>10</v>
       </c>
       <c r="F272" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G272" s="17" t="s">
         <v>668</v>
@@ -14190,7 +14201,7 @@
         <v>10</v>
       </c>
       <c r="F273" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G273" s="17" t="s">
         <v>669</v>
@@ -14216,7 +14227,7 @@
         <v>10</v>
       </c>
       <c r="F274" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G274" s="17" t="s">
         <v>1128</v>
@@ -14242,10 +14253,10 @@
         <v>10</v>
       </c>
       <c r="F275" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>1524</v>
+        <v>1500</v>
       </c>
       <c r="H275" s="16" t="s">
         <v>1130</v>
@@ -14268,7 +14279,7 @@
         <v>10</v>
       </c>
       <c r="F276" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G276" s="17" t="s">
         <v>670</v>
@@ -14294,7 +14305,7 @@
         <v>10</v>
       </c>
       <c r="F277" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G277" s="17" t="s">
         <v>1132</v>
@@ -14320,7 +14331,7 @@
         <v>10</v>
       </c>
       <c r="F278" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G278" s="17" t="s">
         <v>671</v>
@@ -14346,10 +14357,10 @@
         <v>10</v>
       </c>
       <c r="F279" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>1525</v>
+        <v>1501</v>
       </c>
       <c r="H279" s="16" t="s">
         <v>1134</v>
@@ -14372,7 +14383,7 @@
         <v>10</v>
       </c>
       <c r="F280" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G280" s="17" t="s">
         <v>1135</v>
@@ -14398,7 +14409,7 @@
         <v>10</v>
       </c>
       <c r="F281" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G281" s="17" t="s">
         <v>672</v>
@@ -14424,7 +14435,7 @@
         <v>10</v>
       </c>
       <c r="F282" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G282" s="17" t="s">
         <v>673</v>
@@ -14450,7 +14461,7 @@
         <v>10</v>
       </c>
       <c r="F283" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G283" s="17" t="s">
         <v>1139</v>
@@ -14476,7 +14487,7 @@
         <v>10</v>
       </c>
       <c r="F284" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G284" s="17" t="s">
         <v>674</v>
@@ -14502,7 +14513,7 @@
         <v>10</v>
       </c>
       <c r="F285" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G285" s="17" t="s">
         <v>675</v>
@@ -14528,7 +14539,7 @@
         <v>10</v>
       </c>
       <c r="F286" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G286" s="17" t="s">
         <v>1142</v>
@@ -14554,7 +14565,7 @@
         <v>10</v>
       </c>
       <c r="F287" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G287" s="17" t="s">
         <v>676</v>
@@ -14580,7 +14591,7 @@
         <v>10</v>
       </c>
       <c r="F288" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G288" s="17" t="s">
         <v>677</v>
@@ -14606,7 +14617,7 @@
         <v>10</v>
       </c>
       <c r="F289" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G289" s="17" t="s">
         <v>1146</v>
@@ -14632,7 +14643,7 @@
         <v>10</v>
       </c>
       <c r="F290" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G290" s="17" t="s">
         <v>678</v>
@@ -14658,7 +14669,7 @@
         <v>10</v>
       </c>
       <c r="F291" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G291" s="17" t="s">
         <v>679</v>
@@ -14684,7 +14695,7 @@
         <v>10</v>
       </c>
       <c r="F292" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G292" s="17" t="s">
         <v>1149</v>
@@ -14710,7 +14721,7 @@
         <v>10</v>
       </c>
       <c r="F293" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G293" s="17" t="s">
         <v>680</v>
@@ -14736,7 +14747,7 @@
         <v>10</v>
       </c>
       <c r="F294" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G294" s="17" t="s">
         <v>681</v>
@@ -14762,7 +14773,7 @@
         <v>10</v>
       </c>
       <c r="F295" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G295" s="17" t="s">
         <v>1153</v>
@@ -14788,7 +14799,7 @@
         <v>10</v>
       </c>
       <c r="F296" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G296" s="17" t="s">
         <v>682</v>
@@ -14814,7 +14825,7 @@
         <v>10</v>
       </c>
       <c r="F297" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G297" s="17" t="s">
         <v>683</v>
@@ -14840,7 +14851,7 @@
         <v>10</v>
       </c>
       <c r="F298" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G298" s="17" t="s">
         <v>1156</v>
@@ -14866,10 +14877,10 @@
         <v>10</v>
       </c>
       <c r="F299" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G299" s="17" t="s">
-        <v>1526</v>
+        <v>1502</v>
       </c>
       <c r="H299" s="16" t="s">
         <v>1158</v>
@@ -14892,7 +14903,7 @@
         <v>10</v>
       </c>
       <c r="F300" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G300" s="17" t="s">
         <v>684</v>
@@ -14918,7 +14929,7 @@
         <v>10</v>
       </c>
       <c r="F301" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G301" s="17" t="s">
         <v>1160</v>
@@ -14944,7 +14955,7 @@
         <v>10</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G302" s="17" t="s">
         <v>685</v>
@@ -14970,7 +14981,7 @@
         <v>10</v>
       </c>
       <c r="F303" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G303" s="17" t="s">
         <v>686</v>
@@ -14996,7 +15007,7 @@
         <v>10</v>
       </c>
       <c r="F304" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G304" s="17" t="s">
         <v>1163</v>
@@ -15022,7 +15033,7 @@
         <v>10</v>
       </c>
       <c r="F305" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G305" s="17" t="s">
         <v>687</v>
@@ -15048,7 +15059,7 @@
         <v>10</v>
       </c>
       <c r="F306" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G306" s="17" t="s">
         <v>688</v>
@@ -15074,7 +15085,7 @@
         <v>10</v>
       </c>
       <c r="F307" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G307" s="17" t="s">
         <v>1167</v>
@@ -15100,7 +15111,7 @@
         <v>10</v>
       </c>
       <c r="F308" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G308" s="17" t="s">
         <v>689</v>
@@ -15126,7 +15137,7 @@
         <v>10</v>
       </c>
       <c r="F309" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G309" s="17" t="s">
         <v>690</v>
@@ -15152,7 +15163,7 @@
         <v>10</v>
       </c>
       <c r="F310" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G310" s="17" t="s">
         <v>1170</v>
@@ -15178,7 +15189,7 @@
         <v>10</v>
       </c>
       <c r="F311" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G311" s="17" t="s">
         <v>691</v>
@@ -15204,7 +15215,7 @@
         <v>10</v>
       </c>
       <c r="F312" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G312" s="17" t="s">
         <v>692</v>
@@ -15230,7 +15241,7 @@
         <v>10</v>
       </c>
       <c r="F313" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G313" s="17" t="s">
         <v>1174</v>
@@ -15256,7 +15267,7 @@
         <v>10</v>
       </c>
       <c r="F314" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G314" s="17" t="s">
         <v>693</v>
@@ -15282,10 +15293,10 @@
         <v>10</v>
       </c>
       <c r="F315" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G315" s="17" t="s">
-        <v>1527</v>
+        <v>1503</v>
       </c>
       <c r="H315" s="16" t="s">
         <v>1176</v>
@@ -15308,7 +15319,7 @@
         <v>10</v>
       </c>
       <c r="F316" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G316" s="17" t="s">
         <v>1177</v>
@@ -15334,7 +15345,7 @@
         <v>10</v>
       </c>
       <c r="F317" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G317" s="17" t="s">
         <v>694</v>
@@ -15360,7 +15371,7 @@
         <v>10</v>
       </c>
       <c r="F318" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G318" s="17" t="s">
         <v>695</v>
@@ -15386,7 +15397,7 @@
         <v>10</v>
       </c>
       <c r="F319" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G319" s="17" t="s">
         <v>1181</v>
@@ -15412,7 +15423,7 @@
         <v>10</v>
       </c>
       <c r="F320" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G320" s="17" t="s">
         <v>696</v>
@@ -15438,7 +15449,7 @@
         <v>10</v>
       </c>
       <c r="F321" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G321" s="17" t="s">
         <v>697</v>
@@ -15464,7 +15475,7 @@
         <v>10</v>
       </c>
       <c r="F322" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G322" s="17" t="s">
         <v>1184</v>
@@ -15490,7 +15501,7 @@
         <v>10</v>
       </c>
       <c r="F323" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G323" s="17" t="s">
         <v>698</v>
@@ -15516,7 +15527,7 @@
         <v>10</v>
       </c>
       <c r="F324" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G324" s="17" t="s">
         <v>699</v>
@@ -15542,7 +15553,7 @@
         <v>10</v>
       </c>
       <c r="F325" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G325" s="17" t="s">
         <v>1188</v>
@@ -15568,7 +15579,7 @@
         <v>10</v>
       </c>
       <c r="F326" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G326" s="17" t="s">
         <v>700</v>
@@ -15594,7 +15605,7 @@
         <v>10</v>
       </c>
       <c r="F327" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G327" s="17" t="s">
         <v>701</v>
@@ -15620,7 +15631,7 @@
         <v>10</v>
       </c>
       <c r="F328" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G328" s="17" t="s">
         <v>1191</v>
@@ -15646,7 +15657,7 @@
         <v>10</v>
       </c>
       <c r="F329" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G329" s="17" t="s">
         <v>702</v>
@@ -15672,7 +15683,7 @@
         <v>10</v>
       </c>
       <c r="F330" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G330" s="17" t="s">
         <v>703</v>
@@ -15698,7 +15709,7 @@
         <v>10</v>
       </c>
       <c r="F331" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G331" s="17" t="s">
         <v>1195</v>
@@ -15724,7 +15735,7 @@
         <v>10</v>
       </c>
       <c r="F332" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G332" s="17" t="s">
         <v>704</v>
@@ -15750,7 +15761,7 @@
         <v>10</v>
       </c>
       <c r="F333" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G333" s="17" t="s">
         <v>705</v>
@@ -15776,7 +15787,7 @@
         <v>10</v>
       </c>
       <c r="F334" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G334" s="17" t="s">
         <v>1198</v>
@@ -15802,10 +15813,10 @@
         <v>10</v>
       </c>
       <c r="F335" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G335" s="17" t="s">
-        <v>1528</v>
+        <v>1504</v>
       </c>
       <c r="H335" s="16" t="s">
         <v>1200</v>
@@ -15828,7 +15839,7 @@
         <v>10</v>
       </c>
       <c r="F336" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G336" s="17" t="s">
         <v>706</v>
@@ -15854,7 +15865,7 @@
         <v>10</v>
       </c>
       <c r="F337" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G337" s="17" t="s">
         <v>1202</v>
@@ -15880,7 +15891,7 @@
         <v>10</v>
       </c>
       <c r="F338" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G338" s="17" t="s">
         <v>707</v>
@@ -15906,10 +15917,10 @@
         <v>10</v>
       </c>
       <c r="F339" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G339" s="17" t="s">
-        <v>1529</v>
+        <v>1505</v>
       </c>
       <c r="H339" s="16" t="s">
         <v>1204</v>
@@ -15932,7 +15943,7 @@
         <v>10</v>
       </c>
       <c r="F340" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G340" s="17" t="s">
         <v>1205</v>
@@ -15958,7 +15969,7 @@
         <v>10</v>
       </c>
       <c r="F341" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G341" s="17" t="s">
         <v>708</v>
@@ -15984,7 +15995,7 @@
         <v>10</v>
       </c>
       <c r="F342" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G342" s="17" t="s">
         <v>709</v>
@@ -16010,7 +16021,7 @@
         <v>10</v>
       </c>
       <c r="F343" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G343" s="17" t="s">
         <v>1209</v>
@@ -16036,7 +16047,7 @@
         <v>10</v>
       </c>
       <c r="F344" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G344" s="17" t="s">
         <v>710</v>
@@ -16062,7 +16073,7 @@
         <v>10</v>
       </c>
       <c r="F345" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G345" s="17" t="s">
         <v>711</v>
@@ -16088,7 +16099,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G346" s="17" t="s">
         <v>1212</v>
@@ -16114,7 +16125,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G347" s="17" t="s">
         <v>712</v>
@@ -16140,7 +16151,7 @@
         <v>10</v>
       </c>
       <c r="F348" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G348" s="17" t="s">
         <v>713</v>
@@ -16166,7 +16177,7 @@
         <v>10</v>
       </c>
       <c r="F349" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G349" s="17" t="s">
         <v>1216</v>
@@ -16192,7 +16203,7 @@
         <v>10</v>
       </c>
       <c r="F350" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G350" s="17" t="s">
         <v>714</v>
@@ -16218,7 +16229,7 @@
         <v>10</v>
       </c>
       <c r="F351" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G351" s="17" t="s">
         <v>715</v>
@@ -16244,7 +16255,7 @@
         <v>10</v>
       </c>
       <c r="F352" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G352" s="17" t="s">
         <v>1219</v>
@@ -16270,7 +16281,7 @@
         <v>10</v>
       </c>
       <c r="F353" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G353" s="17" t="s">
         <v>716</v>
@@ -16296,7 +16307,7 @@
         <v>10</v>
       </c>
       <c r="F354" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G354" s="17" t="s">
         <v>717</v>
@@ -16322,7 +16333,7 @@
         <v>10</v>
       </c>
       <c r="F355" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G355" s="17" t="s">
         <v>1223</v>
@@ -16348,7 +16359,7 @@
         <v>10</v>
       </c>
       <c r="F356" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G356" s="17" t="s">
         <v>718</v>
@@ -16374,7 +16385,7 @@
         <v>10</v>
       </c>
       <c r="F357" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G357" s="17" t="s">
         <v>719</v>
@@ -16400,7 +16411,7 @@
         <v>10</v>
       </c>
       <c r="F358" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G358" s="17" t="s">
         <v>1226</v>
@@ -16426,10 +16437,10 @@
         <v>10</v>
       </c>
       <c r="F359" s="21" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G359" s="17" t="s">
         <v>1506</v>
-      </c>
-      <c r="G359" s="17" t="s">
-        <v>1530</v>
       </c>
       <c r="H359" s="16" t="s">
         <v>1228</v>
@@ -16452,7 +16463,7 @@
         <v>10</v>
       </c>
       <c r="F360" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G360" s="17" t="s">
         <v>720</v>
@@ -16478,7 +16489,7 @@
         <v>10</v>
       </c>
       <c r="F361" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G361" s="17" t="s">
         <v>1230</v>
@@ -16504,7 +16515,7 @@
         <v>10</v>
       </c>
       <c r="F362" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G362" s="17" t="s">
         <v>721</v>
@@ -16530,7 +16541,7 @@
         <v>10</v>
       </c>
       <c r="F363" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G363" s="17" t="s">
         <v>722</v>
@@ -16556,7 +16567,7 @@
         <v>10</v>
       </c>
       <c r="F364" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G364" s="17" t="s">
         <v>1233</v>
@@ -16582,7 +16593,7 @@
         <v>10</v>
       </c>
       <c r="F365" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G365" s="17" t="s">
         <v>723</v>
@@ -16608,7 +16619,7 @@
         <v>10</v>
       </c>
       <c r="F366" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G366" s="17" t="s">
         <v>724</v>
@@ -16634,7 +16645,7 @@
         <v>10</v>
       </c>
       <c r="F367" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G367" s="17" t="s">
         <v>1237</v>
@@ -16660,7 +16671,7 @@
         <v>10</v>
       </c>
       <c r="F368" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G368" s="17" t="s">
         <v>725</v>
@@ -16686,7 +16697,7 @@
         <v>10</v>
       </c>
       <c r="F369" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G369" s="17" t="s">
         <v>726</v>
@@ -16712,7 +16723,7 @@
         <v>10</v>
       </c>
       <c r="F370" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G370" s="17" t="s">
         <v>1240</v>
@@ -16738,7 +16749,7 @@
         <v>10</v>
       </c>
       <c r="F371" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G371" s="17" t="s">
         <v>727</v>
@@ -16764,7 +16775,7 @@
         <v>10</v>
       </c>
       <c r="F372" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G372" s="17" t="s">
         <v>728</v>
@@ -16790,7 +16801,7 @@
         <v>10</v>
       </c>
       <c r="F373" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G373" s="17" t="s">
         <v>1244</v>
@@ -16816,7 +16827,7 @@
         <v>10</v>
       </c>
       <c r="F374" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G374" s="17" t="s">
         <v>729</v>
@@ -16842,10 +16853,10 @@
         <v>10</v>
       </c>
       <c r="F375" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G375" s="17" t="s">
-        <v>1531</v>
+        <v>1507</v>
       </c>
       <c r="H375" s="16" t="s">
         <v>1246</v>
@@ -16868,7 +16879,7 @@
         <v>10</v>
       </c>
       <c r="F376" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G376" s="17" t="s">
         <v>1247</v>
@@ -16894,7 +16905,7 @@
         <v>10</v>
       </c>
       <c r="F377" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G377" s="17" t="s">
         <v>730</v>
@@ -16920,7 +16931,7 @@
         <v>10</v>
       </c>
       <c r="F378" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G378" s="17" t="s">
         <v>731</v>
@@ -16946,7 +16957,7 @@
         <v>10</v>
       </c>
       <c r="F379" s="21" t="s">
-        <v>1506</v>
+        <v>1482</v>
       </c>
       <c r="G379" s="17" t="s">
         <v>1251</v>
@@ -16972,7 +16983,7 @@
         <v>10</v>
       </c>
       <c r="F380" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G380" s="17" t="s">
         <v>732</v>
@@ -16998,7 +17009,7 @@
         <v>10</v>
       </c>
       <c r="F381" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G381" s="17" t="s">
         <v>733</v>
@@ -17024,7 +17035,7 @@
         <v>10</v>
       </c>
       <c r="F382" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G382" s="17" t="s">
         <v>1254</v>
@@ -17050,7 +17061,7 @@
         <v>10</v>
       </c>
       <c r="F383" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G383" s="17" t="s">
         <v>734</v>
@@ -17076,7 +17087,7 @@
         <v>10</v>
       </c>
       <c r="F384" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G384" s="17" t="s">
         <v>735</v>
@@ -17102,7 +17113,7 @@
         <v>10</v>
       </c>
       <c r="F385" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G385" s="17" t="s">
         <v>1258</v>
@@ -17128,7 +17139,7 @@
         <v>10</v>
       </c>
       <c r="F386" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G386" s="17" t="s">
         <v>736</v>
@@ -17154,7 +17165,7 @@
         <v>10</v>
       </c>
       <c r="F387" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G387" s="17" t="s">
         <v>737</v>
@@ -17180,7 +17191,7 @@
         <v>10</v>
       </c>
       <c r="F388" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G388" s="17" t="s">
         <v>1261</v>
@@ -17206,7 +17217,7 @@
         <v>10</v>
       </c>
       <c r="F389" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G389" s="17" t="s">
         <v>738</v>
@@ -17232,7 +17243,7 @@
         <v>10</v>
       </c>
       <c r="F390" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G390" s="17" t="s">
         <v>739</v>
@@ -17258,7 +17269,7 @@
         <v>10</v>
       </c>
       <c r="F391" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G391" s="17" t="s">
         <v>1265</v>
@@ -17284,7 +17295,7 @@
         <v>10</v>
       </c>
       <c r="F392" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G392" s="17" t="s">
         <v>740</v>
@@ -17310,7 +17321,7 @@
         <v>10</v>
       </c>
       <c r="F393" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G393" s="17" t="s">
         <v>741</v>
@@ -17336,7 +17347,7 @@
         <v>10</v>
       </c>
       <c r="F394" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G394" s="17" t="s">
         <v>1268</v>
@@ -17362,10 +17373,10 @@
         <v>10</v>
       </c>
       <c r="F395" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G395" s="17" t="s">
-        <v>1532</v>
+        <v>1508</v>
       </c>
       <c r="H395" s="16" t="s">
         <v>1270</v>
@@ -17388,7 +17399,7 @@
         <v>10</v>
       </c>
       <c r="F396" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G396" s="17" t="s">
         <v>742</v>
@@ -17414,7 +17425,7 @@
         <v>10</v>
       </c>
       <c r="F397" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G397" s="17" t="s">
         <v>1272</v>
@@ -17440,7 +17451,7 @@
         <v>10</v>
       </c>
       <c r="F398" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G398" s="17" t="s">
         <v>743</v>
@@ -17466,10 +17477,10 @@
         <v>10</v>
       </c>
       <c r="F399" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G399" s="17" t="s">
-        <v>1533</v>
+        <v>1509</v>
       </c>
       <c r="H399" s="16" t="s">
         <v>1274</v>
@@ -17492,7 +17503,7 @@
         <v>10</v>
       </c>
       <c r="F400" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G400" s="17" t="s">
         <v>1275</v>
@@ -17518,7 +17529,7 @@
         <v>10</v>
       </c>
       <c r="F401" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G401" s="17" t="s">
         <v>744</v>
@@ -17544,7 +17555,7 @@
         <v>10</v>
       </c>
       <c r="F402" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G402" s="17" t="s">
         <v>745</v>
@@ -17570,7 +17581,7 @@
         <v>10</v>
       </c>
       <c r="F403" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G403" s="17" t="s">
         <v>1279</v>
@@ -17596,7 +17607,7 @@
         <v>10</v>
       </c>
       <c r="F404" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G404" s="17" t="s">
         <v>746</v>
@@ -17622,7 +17633,7 @@
         <v>10</v>
       </c>
       <c r="F405" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G405" s="17" t="s">
         <v>747</v>
@@ -17648,7 +17659,7 @@
         <v>10</v>
       </c>
       <c r="F406" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G406" s="17" t="s">
         <v>1282</v>
@@ -17674,7 +17685,7 @@
         <v>10</v>
       </c>
       <c r="F407" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G407" s="17" t="s">
         <v>748</v>
@@ -17700,7 +17711,7 @@
         <v>10</v>
       </c>
       <c r="F408" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G408" s="17" t="s">
         <v>749</v>
@@ -17726,7 +17737,7 @@
         <v>10</v>
       </c>
       <c r="F409" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G409" s="17" t="s">
         <v>1286</v>
@@ -17752,7 +17763,7 @@
         <v>10</v>
       </c>
       <c r="F410" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G410" s="17" t="s">
         <v>750</v>
@@ -17778,7 +17789,7 @@
         <v>10</v>
       </c>
       <c r="F411" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G411" s="17" t="s">
         <v>751</v>
@@ -17804,7 +17815,7 @@
         <v>10</v>
       </c>
       <c r="F412" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G412" s="17" t="s">
         <v>1289</v>
@@ -17830,7 +17841,7 @@
         <v>10</v>
       </c>
       <c r="F413" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G413" s="17" t="s">
         <v>752</v>
@@ -17856,7 +17867,7 @@
         <v>10</v>
       </c>
       <c r="F414" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G414" s="17" t="s">
         <v>753</v>
@@ -17882,7 +17893,7 @@
         <v>10</v>
       </c>
       <c r="F415" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G415" s="17" t="s">
         <v>1293</v>
@@ -17908,7 +17919,7 @@
         <v>10</v>
       </c>
       <c r="F416" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G416" s="17" t="s">
         <v>754</v>
@@ -17934,7 +17945,7 @@
         <v>10</v>
       </c>
       <c r="F417" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G417" s="17" t="s">
         <v>755</v>
@@ -17960,7 +17971,7 @@
         <v>10</v>
       </c>
       <c r="F418" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G418" s="17" t="s">
         <v>1296</v>
@@ -17986,10 +17997,10 @@
         <v>10</v>
       </c>
       <c r="F419" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G419" s="17" t="s">
-        <v>1534</v>
+        <v>1510</v>
       </c>
       <c r="H419" s="16" t="s">
         <v>1298</v>
@@ -18012,7 +18023,7 @@
         <v>10</v>
       </c>
       <c r="F420" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G420" s="17" t="s">
         <v>756</v>
@@ -18038,7 +18049,7 @@
         <v>10</v>
       </c>
       <c r="F421" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G421" s="17" t="s">
         <v>1300</v>
@@ -18064,7 +18075,7 @@
         <v>10</v>
       </c>
       <c r="F422" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G422" s="17" t="s">
         <v>757</v>
@@ -18090,7 +18101,7 @@
         <v>10</v>
       </c>
       <c r="F423" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G423" s="17" t="s">
         <v>758</v>
@@ -18116,7 +18127,7 @@
         <v>10</v>
       </c>
       <c r="F424" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G424" s="17" t="s">
         <v>1303</v>
@@ -18142,7 +18153,7 @@
         <v>10</v>
       </c>
       <c r="F425" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G425" s="17" t="s">
         <v>759</v>
@@ -18168,7 +18179,7 @@
         <v>10</v>
       </c>
       <c r="F426" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G426" s="17" t="s">
         <v>760</v>
@@ -18194,7 +18205,7 @@
         <v>10</v>
       </c>
       <c r="F427" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G427" s="17" t="s">
         <v>1307</v>
@@ -18220,7 +18231,7 @@
         <v>10</v>
       </c>
       <c r="F428" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G428" s="17" t="s">
         <v>761</v>
@@ -18246,7 +18257,7 @@
         <v>10</v>
       </c>
       <c r="F429" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G429" s="17" t="s">
         <v>762</v>
@@ -18272,7 +18283,7 @@
         <v>10</v>
       </c>
       <c r="F430" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G430" s="17" t="s">
         <v>1310</v>
@@ -18298,7 +18309,7 @@
         <v>10</v>
       </c>
       <c r="F431" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G431" s="17" t="s">
         <v>763</v>
@@ -18324,7 +18335,7 @@
         <v>10</v>
       </c>
       <c r="F432" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G432" s="17" t="s">
         <v>764</v>
@@ -18350,7 +18361,7 @@
         <v>10</v>
       </c>
       <c r="F433" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G433" s="17" t="s">
         <v>1314</v>
@@ -18376,7 +18387,7 @@
         <v>10</v>
       </c>
       <c r="F434" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G434" s="17" t="s">
         <v>765</v>
@@ -18402,10 +18413,10 @@
         <v>10</v>
       </c>
       <c r="F435" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G435" s="17" t="s">
-        <v>1535</v>
+        <v>1511</v>
       </c>
       <c r="H435" s="16" t="s">
         <v>1316</v>
@@ -18428,7 +18439,7 @@
         <v>10</v>
       </c>
       <c r="F436" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G436" s="17" t="s">
         <v>1317</v>
@@ -18454,7 +18465,7 @@
         <v>10</v>
       </c>
       <c r="F437" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G437" s="17" t="s">
         <v>766</v>
@@ -18480,7 +18491,7 @@
         <v>10</v>
       </c>
       <c r="F438" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G438" s="17" t="s">
         <v>767</v>
@@ -18506,7 +18517,7 @@
         <v>10</v>
       </c>
       <c r="F439" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G439" s="17" t="s">
         <v>1321</v>
@@ -18532,7 +18543,7 @@
         <v>10</v>
       </c>
       <c r="F440" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G440" s="17" t="s">
         <v>768</v>
@@ -18558,7 +18569,7 @@
         <v>10</v>
       </c>
       <c r="F441" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G441" s="17" t="s">
         <v>769</v>
@@ -18584,7 +18595,7 @@
         <v>10</v>
       </c>
       <c r="F442" s="21" t="s">
-        <v>1504</v>
+        <v>1480</v>
       </c>
       <c r="G442" s="17" t="s">
         <v>1324</v>
@@ -18610,7 +18621,7 @@
         <v>10</v>
       </c>
       <c r="F443" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G443" s="17" t="s">
         <v>770</v>
@@ -18636,7 +18647,7 @@
         <v>10</v>
       </c>
       <c r="F444" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G444" s="17" t="s">
         <v>771</v>
@@ -18662,7 +18673,7 @@
         <v>10</v>
       </c>
       <c r="F445" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G445" s="17" t="s">
         <v>1328</v>
@@ -18688,7 +18699,7 @@
         <v>10</v>
       </c>
       <c r="F446" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G446" s="17" t="s">
         <v>772</v>
@@ -18714,7 +18725,7 @@
         <v>10</v>
       </c>
       <c r="F447" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G447" s="17" t="s">
         <v>773</v>
@@ -18740,7 +18751,7 @@
         <v>10</v>
       </c>
       <c r="F448" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G448" s="17" t="s">
         <v>1331</v>
@@ -18766,7 +18777,7 @@
         <v>10</v>
       </c>
       <c r="F449" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G449" s="17" t="s">
         <v>774</v>
@@ -18792,7 +18803,7 @@
         <v>10</v>
       </c>
       <c r="F450" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G450" s="17" t="s">
         <v>775</v>
@@ -18818,7 +18829,7 @@
         <v>10</v>
       </c>
       <c r="F451" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G451" s="17" t="s">
         <v>1335</v>
@@ -18844,7 +18855,7 @@
         <v>10</v>
       </c>
       <c r="F452" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G452" s="17" t="s">
         <v>776</v>
@@ -18870,7 +18881,7 @@
         <v>10</v>
       </c>
       <c r="F453" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G453" s="17" t="s">
         <v>777</v>
@@ -18896,7 +18907,7 @@
         <v>10</v>
       </c>
       <c r="F454" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G454" s="17" t="s">
         <v>1338</v>
@@ -18922,10 +18933,10 @@
         <v>10</v>
       </c>
       <c r="F455" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G455" s="17" t="s">
-        <v>1536</v>
+        <v>1512</v>
       </c>
       <c r="H455" s="16" t="s">
         <v>1340</v>
@@ -18948,7 +18959,7 @@
         <v>10</v>
       </c>
       <c r="F456" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G456" s="17" t="s">
         <v>778</v>
@@ -18974,7 +18985,7 @@
         <v>10</v>
       </c>
       <c r="F457" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G457" s="17" t="s">
         <v>1342</v>
@@ -19000,7 +19011,7 @@
         <v>10</v>
       </c>
       <c r="F458" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G458" s="17" t="s">
         <v>779</v>
@@ -19026,10 +19037,10 @@
         <v>10</v>
       </c>
       <c r="F459" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G459" s="17" t="s">
-        <v>1537</v>
+        <v>1513</v>
       </c>
       <c r="H459" s="16" t="s">
         <v>1344</v>
@@ -19052,7 +19063,7 @@
         <v>10</v>
       </c>
       <c r="F460" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G460" s="17" t="s">
         <v>1345</v>
@@ -19078,7 +19089,7 @@
         <v>10</v>
       </c>
       <c r="F461" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G461" s="17" t="s">
         <v>780</v>
@@ -19104,7 +19115,7 @@
         <v>10</v>
       </c>
       <c r="F462" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G462" s="17" t="s">
         <v>781</v>
@@ -19130,7 +19141,7 @@
         <v>10</v>
       </c>
       <c r="F463" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G463" s="17" t="s">
         <v>1349</v>
@@ -19156,7 +19167,7 @@
         <v>10</v>
       </c>
       <c r="F464" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G464" s="17" t="s">
         <v>782</v>
@@ -19182,7 +19193,7 @@
         <v>10</v>
       </c>
       <c r="F465" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G465" s="17" t="s">
         <v>783</v>
@@ -19208,7 +19219,7 @@
         <v>10</v>
       </c>
       <c r="F466" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G466" s="17" t="s">
         <v>1352</v>
@@ -19234,7 +19245,7 @@
         <v>10</v>
       </c>
       <c r="F467" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G467" s="17" t="s">
         <v>784</v>
@@ -19260,7 +19271,7 @@
         <v>10</v>
       </c>
       <c r="F468" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G468" s="17" t="s">
         <v>785</v>
@@ -19286,7 +19297,7 @@
         <v>10</v>
       </c>
       <c r="F469" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G469" s="17" t="s">
         <v>1356</v>
@@ -19312,7 +19323,7 @@
         <v>10</v>
       </c>
       <c r="F470" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G470" s="17" t="s">
         <v>786</v>
@@ -19338,7 +19349,7 @@
         <v>10</v>
       </c>
       <c r="F471" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G471" s="17" t="s">
         <v>787</v>
@@ -19364,7 +19375,7 @@
         <v>10</v>
       </c>
       <c r="F472" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G472" s="17" t="s">
         <v>1359</v>
@@ -19390,7 +19401,7 @@
         <v>10</v>
       </c>
       <c r="F473" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G473" s="17" t="s">
         <v>788</v>
@@ -19416,7 +19427,7 @@
         <v>10</v>
       </c>
       <c r="F474" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G474" s="17" t="s">
         <v>789</v>
@@ -19442,7 +19453,7 @@
         <v>10</v>
       </c>
       <c r="F475" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G475" s="17" t="s">
         <v>1363</v>
@@ -19468,7 +19479,7 @@
         <v>10</v>
       </c>
       <c r="F476" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G476" s="17" t="s">
         <v>790</v>
@@ -19494,7 +19505,7 @@
         <v>10</v>
       </c>
       <c r="F477" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G477" s="17" t="s">
         <v>791</v>
@@ -19520,7 +19531,7 @@
         <v>10</v>
       </c>
       <c r="F478" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G478" s="17" t="s">
         <v>1366</v>
@@ -19546,10 +19557,10 @@
         <v>10</v>
       </c>
       <c r="F479" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G479" s="17" t="s">
-        <v>1538</v>
+        <v>1514</v>
       </c>
       <c r="H479" s="16" t="s">
         <v>1368</v>
@@ -19572,7 +19583,7 @@
         <v>10</v>
       </c>
       <c r="F480" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G480" s="17" t="s">
         <v>792</v>
@@ -19598,7 +19609,7 @@
         <v>10</v>
       </c>
       <c r="F481" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G481" s="17" t="s">
         <v>1370</v>
@@ -19624,7 +19635,7 @@
         <v>10</v>
       </c>
       <c r="F482" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G482" s="17" t="s">
         <v>793</v>
@@ -19650,7 +19661,7 @@
         <v>10</v>
       </c>
       <c r="F483" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G483" s="17" t="s">
         <v>794</v>
@@ -19676,7 +19687,7 @@
         <v>10</v>
       </c>
       <c r="F484" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G484" s="17" t="s">
         <v>1373</v>
@@ -19702,7 +19713,7 @@
         <v>10</v>
       </c>
       <c r="F485" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G485" s="17" t="s">
         <v>795</v>
@@ -19728,7 +19739,7 @@
         <v>10</v>
       </c>
       <c r="F486" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G486" s="17" t="s">
         <v>796</v>
@@ -19754,7 +19765,7 @@
         <v>10</v>
       </c>
       <c r="F487" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G487" s="17" t="s">
         <v>1377</v>
@@ -19780,7 +19791,7 @@
         <v>10</v>
       </c>
       <c r="F488" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G488" s="17" t="s">
         <v>797</v>
@@ -19806,7 +19817,7 @@
         <v>10</v>
       </c>
       <c r="F489" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G489" s="17" t="s">
         <v>798</v>
@@ -19832,7 +19843,7 @@
         <v>10</v>
       </c>
       <c r="F490" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G490" s="17" t="s">
         <v>1380</v>
@@ -19858,7 +19869,7 @@
         <v>10</v>
       </c>
       <c r="F491" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G491" s="17" t="s">
         <v>799</v>
@@ -19884,7 +19895,7 @@
         <v>10</v>
       </c>
       <c r="F492" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G492" s="17" t="s">
         <v>800</v>
@@ -19910,7 +19921,7 @@
         <v>10</v>
       </c>
       <c r="F493" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G493" s="17" t="s">
         <v>1384</v>
@@ -19936,7 +19947,7 @@
         <v>10</v>
       </c>
       <c r="F494" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G494" s="17" t="s">
         <v>801</v>
@@ -19962,10 +19973,10 @@
         <v>10</v>
       </c>
       <c r="F495" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G495" s="17" t="s">
-        <v>1539</v>
+        <v>1515</v>
       </c>
       <c r="H495" s="16" t="s">
         <v>1386</v>
@@ -19988,7 +19999,7 @@
         <v>10</v>
       </c>
       <c r="F496" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G496" s="17" t="s">
         <v>1387</v>
@@ -20014,7 +20025,7 @@
         <v>10</v>
       </c>
       <c r="F497" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G497" s="17" t="s">
         <v>802</v>
@@ -20040,7 +20051,7 @@
         <v>10</v>
       </c>
       <c r="F498" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G498" s="17" t="s">
         <v>803</v>
@@ -20066,7 +20077,7 @@
         <v>10</v>
       </c>
       <c r="F499" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G499" s="17" t="s">
         <v>1391</v>
@@ -20092,7 +20103,7 @@
         <v>10</v>
       </c>
       <c r="F500" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G500" s="17" t="s">
         <v>804</v>
@@ -20118,7 +20129,7 @@
         <v>10</v>
       </c>
       <c r="F501" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G501" s="17" t="s">
         <v>805</v>
@@ -20144,7 +20155,7 @@
         <v>10</v>
       </c>
       <c r="F502" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G502" s="17" t="s">
         <v>1394</v>
@@ -20170,7 +20181,7 @@
         <v>10</v>
       </c>
       <c r="F503" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G503" s="17" t="s">
         <v>806</v>
@@ -20196,7 +20207,7 @@
         <v>10</v>
       </c>
       <c r="F504" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G504" s="17" t="s">
         <v>807</v>
@@ -20222,7 +20233,7 @@
         <v>10</v>
       </c>
       <c r="F505" s="21" t="s">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="G505" s="17" t="s">
         <v>1398</v>
@@ -20290,7 +20301,7 @@
       <c r="D523" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -20305,8 +20316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C349"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20358,7 +20369,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1405</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -20369,7 +20380,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -20380,7 +20391,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -20391,7 +20402,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -20402,7 +20413,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1409</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -20413,7 +20424,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -20424,7 +20435,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -20435,7 +20446,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -20446,7 +20457,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1413</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
@@ -20457,7 +20468,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -20468,7 +20479,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -20479,7 +20490,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -20490,7 +20501,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1417</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -20501,7 +20512,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -20512,7 +20523,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -20523,7 +20534,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -20534,7 +20545,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1421</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -20545,7 +20556,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -20556,7 +20567,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -20567,7 +20578,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -20578,7 +20589,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1425</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -20589,7 +20600,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -20600,7 +20611,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -20611,7 +20622,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -20621,8 +20632,8 @@
       <c r="B28" s="4">
         <v>45</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>1429</v>
+      <c r="C28" s="23" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -20633,7 +20644,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -20644,7 +20655,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -20655,7 +20666,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -20666,7 +20677,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1433</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -20677,7 +20688,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -20688,7 +20699,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -20699,7 +20710,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -20710,7 +20721,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1437</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -20721,7 +20732,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -20732,7 +20743,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -20743,7 +20754,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -20754,7 +20765,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1441</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -20765,7 +20776,7 @@
         <v>60</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
@@ -20776,7 +20787,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
@@ -20787,7 +20798,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
@@ -20798,7 +20809,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1445</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
@@ -20809,7 +20820,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
@@ -20820,7 +20831,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
@@ -20831,7 +20842,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
@@ -20842,7 +20853,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1449</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
@@ -20853,7 +20864,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
@@ -20864,7 +20875,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
@@ -20875,7 +20886,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
@@ -20886,7 +20897,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>1453</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
@@ -20897,7 +20908,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
@@ -20908,7 +20919,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
@@ -20919,7 +20930,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>1456</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
@@ -20930,7 +20941,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1457</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
@@ -20941,7 +20952,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
@@ -20952,7 +20963,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
@@ -20963,7 +20974,7 @@
         <v>30</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
@@ -20974,7 +20985,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1461</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
@@ -20985,7 +20996,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
@@ -20996,7 +21007,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
@@ -21007,7 +21018,7 @@
         <v>30</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
@@ -21018,7 +21029,7 @@
         <v>45</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1465</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
@@ -21029,7 +21040,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
@@ -21040,7 +21051,7 @@
         <v>15</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
@@ -21051,7 +21062,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
@@ -21062,7 +21073,7 @@
         <v>45</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1469</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
@@ -21073,7 +21084,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>1470</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
@@ -21084,7 +21095,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
@@ -21095,7 +21106,7 @@
         <v>30</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
@@ -21106,7 +21117,7 @@
         <v>45</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1473</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
@@ -21117,7 +21128,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>1474</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
@@ -21128,7 +21139,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1475</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
@@ -21139,7 +21150,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>1476</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
@@ -21150,7 +21161,7 @@
         <v>45</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>1477</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
@@ -21161,7 +21172,7 @@
         <v>60</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
@@ -21172,7 +21183,7 @@
         <v>15</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1479</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
@@ -21183,7 +21194,7 @@
         <v>30</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>1480</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
@@ -21194,7 +21205,7 @@
         <v>45</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>1481</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
@@ -21205,7 +21216,7 @@
         <v>60</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
@@ -21216,7 +21227,7 @@
         <v>15</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
@@ -21227,7 +21238,7 @@
         <v>30</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
@@ -21238,7 +21249,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1485</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
@@ -21249,7 +21260,7 @@
         <v>60</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>1486</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
@@ -21260,7 +21271,7 @@
         <v>15</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
@@ -21271,7 +21282,7 @@
         <v>30</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
@@ -21282,7 +21293,7 @@
         <v>45</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1489</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
@@ -21293,7 +21304,7 @@
         <v>60</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>1490</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
@@ -21304,7 +21315,7 @@
         <v>15</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
@@ -21315,7 +21326,7 @@
         <v>30</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>1492</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
@@ -21326,7 +21337,7 @@
         <v>45</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1493</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
@@ -21337,7 +21348,7 @@
         <v>60</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1494</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
@@ -21348,7 +21359,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1495</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
@@ -21359,7 +21370,7 @@
         <v>30</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1496</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
@@ -21370,7 +21381,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1497</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
@@ -21381,7 +21392,7 @@
         <v>60</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1498</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
@@ -22146,7 +22157,7 @@
       <c r="B349" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/gameData/shared/PvE.xlsx
+++ b/gameData/shared/PvE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24840" yWindow="0" windowWidth="24040" windowHeight="11300" tabRatio="566"/>
+    <workbookView xWindow="1780" yWindow="1160" windowWidth="24520" windowHeight="15060" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="12" r:id="rId1"/>
@@ -2989,39 +2989,6 @@
     <t>soldierMaterials:magicBox:1560,soldierMaterials:deathHand:1560,items:foodBonus_1:1</t>
   </si>
   <si>
-    <t>blueDragon_1_2,ballista_1_60,sentinel_1_180,horseArhcer_1_60,ranger_1_60</t>
-  </si>
-  <si>
-    <t>blueDragon_1_4,ballista_1_160,sentinel_1_480,horseArhcer_1_160,ranger_1_160</t>
-  </si>
-  <si>
-    <t>blueDragon_1_4,ballista_1_180,sentinel_1_540,horseArhcer_1_180,crossbowman_1_180</t>
-  </si>
-  <si>
-    <t>greenDragon_1_6,ballista_1_280,sentinel_1_840,horseArhcer_1_280,crossbowman_1_280</t>
-  </si>
-  <si>
-    <t>greenDragon_1_7,ballista_1_360,sentinel_1_1080,horseArhcer_1_360,ranger_1_360</t>
-  </si>
-  <si>
-    <t>redDragon_1_8,ballista_1_460,sentinel_1_1380,horseArhcer_1_460,ranger_1_460</t>
-  </si>
-  <si>
-    <t>redDragon_1_9,ballista_1_480,sentinel_1_1440,horseArhcer_1_480,crossbowman_1_480</t>
-  </si>
-  <si>
-    <t>redDragon_1_10,ballista_1_580,sentinel_1_1740,horseArhcer_1_580,crossbowman_1_580</t>
-  </si>
-  <si>
-    <t>blueDragon_2_11,ballista_1_660,sentinel_1_1980,horseArhcer_1_660,ranger_1_660</t>
-  </si>
-  <si>
-    <t>blueDragon_2_13,ballista_1_760,sentinel_1_2280,horseArhcer_1_760,ranger_1_760</t>
-  </si>
-  <si>
-    <t>blueDragon_2_13,ballista_1_780,sentinel_1_2340,horseArhcer_1_780,crossbowman_1_780</t>
-  </si>
-  <si>
     <t>blueDragon_2_14,skeletonWarrior_2_1563,deathKnight_2_625,skeletonArcher_2_937,meatWagon_2_155</t>
   </si>
   <si>
@@ -3052,9 +3019,6 @@
     <t>blueDragon_2_15,deathKnight_2_918,skeletonArcher_2_1377,meatWagon_2_228,skeletonWarrior_2_458</t>
   </si>
   <si>
-    <t>blueDragon_2_15,ballista_1_928,sentinel_1_2785,horseArhcer_1_928,crossbowman_1_928</t>
-  </si>
-  <si>
     <t>blueDragon_2_15,crossbowman_1_3752,ballista_1_702,sentinel_1_1876,horseArcher_1_468</t>
   </si>
   <si>
@@ -3100,9 +3064,6 @@
     <t>redDragon_2_16,horseArcher_1_2158,crossbowman_1_3237,ballista_1_539,swordsman_1_1079</t>
   </si>
   <si>
-    <t>redDragon_2_16,ballista_1_1089,sentinel_1_3268,horseArhcer_1_1089,ranger_1_1089</t>
-  </si>
-  <si>
     <t>redDragon_2_16,skeletonArcher_2_2200,meatWagon_2_411,skeletonWarrior_2_1100,deathKnight_2_274</t>
   </si>
   <si>
@@ -3160,9 +3121,6 @@
     <t>redDragon_2_17,deathKnight_2_1297,skeletonArcher_2_1945,meatWagon_2_323,skeletonWarrior_2_648</t>
   </si>
   <si>
-    <t>redDragon_2_18,ballista_1_1309,sentinel_1_3927,horseArhcer_1_1309,ranger_1_1309</t>
-  </si>
-  <si>
     <t>redDragon_2_18,crossbowman_1_5282,ballista_1_989,sentinel_1_2641,lancer_1_659</t>
   </si>
   <si>
@@ -3172,9 +3130,6 @@
     <t>redDragon_2_18,horseArcher_1_2687,crossbowman_1_4031,ballista_1_671,sentinel_1_1343</t>
   </si>
   <si>
-    <t>redDragon_2_18,ballista_1_1355,sentinel_1_4066,horseArhcer_1_1355,crossbowman_1_1355</t>
-  </si>
-  <si>
     <t>redDragon_2_18,skeletonArcher_2_2734,meatWagon_2_511,skeletonWarrior_2_1367,deathKnight_2_341</t>
   </si>
   <si>
@@ -3232,9 +3187,6 @@
     <t>redDragon_2_19,deathKnight_2_1586,skeletonArcher_2_2378,meatWagon_2_395,skeletonWarrior_2_792</t>
   </si>
   <si>
-    <t>redDragon_2_19,ballista_1_1598,sentinel_1_4796,horseArhcer_1_1598,crossbowman_1_1598</t>
-  </si>
-  <si>
     <t>redDragon_2_19,crossbowman_1_6446,ballista_1_1207,sentinel_1_3223,horseArcher_1_805</t>
   </si>
   <si>
@@ -3280,9 +3232,6 @@
     <t>greenDragon_3_21,horseArcher_1_3589,crossbowman_1_5383,ballista_1_896,swordsman_1_1794</t>
   </si>
   <si>
-    <t>greenDragon_3_21,ballista_1_1808,sentinel_1_5424,horseArhcer_1_1808,ranger_1_1808</t>
-  </si>
-  <si>
     <t>greenDragon_3_21,skeletonArcher_2_3643,meatWagon_2_682,skeletonWarrior_2_1821,deathKnight_2_455</t>
   </si>
   <si>
@@ -3340,9 +3289,6 @@
     <t>greenDragon_3_22,deathKnight_2_1941,skeletonArcher_2_3108,meatWagon_2_582,skeletonWarrior_2_1554</t>
   </si>
   <si>
-    <t>greenDragon_3_22,ballista_1_2087,sentinel_1_6262,horseArhcer_1_2087,ranger_1_2087</t>
-  </si>
-  <si>
     <t>greenDragon_3_22,crossbowman_1_8408,ballista_1_1575,sentinel_1_4204,lancer_1_1050</t>
   </si>
   <si>
@@ -3352,9 +3298,6 @@
     <t>greenDragon_3_22,horseArcher_1_4262,crossbowman_1_6393,ballista_1_1064,sentinel_1_2131</t>
   </si>
   <si>
-    <t>greenDragon_3_22,ballista_1_2145,sentinel_1_6437,horseArhcer_1_2145,crossbowman_1_2145</t>
-  </si>
-  <si>
     <t>greenDragon_3_23,skeletonArcher_2_4321,meatWagon_2_809,skeletonWarrior_2_2160,deathKnight_2_539</t>
   </si>
   <si>
@@ -3412,9 +3355,6 @@
     <t>greenDragon_3_24,deathKnight_2_2433,skeletonArcher_2_3649,meatWagon_2_607,skeletonWarrior_2_1216</t>
   </si>
   <si>
-    <t>greenDragon_3_24,ballista_1_2449,sentinel_1_7348,horseArhcer_1_2449,crossbowman_1_2449</t>
-  </si>
-  <si>
     <t>greenDragon_3_24,crossbowman_1_9860,ballista_1_1847,sentinel_1_4930,horseArcher_1_1231</t>
   </si>
   <si>
@@ -3460,9 +3400,6 @@
     <t>greenDragon_3_25,horseArcher_1_5380,crossbowman_1_8070,ballista_1_1344,swordsman_1_2690</t>
   </si>
   <si>
-    <t>greenDragon_3_25,ballista_1_2706,sentinel_1_8119,horseArhcer_1_2706,ranger_1_2706</t>
-  </si>
-  <si>
     <t>greenDragon_3_25,skeletonArcher_2_5105,meatWagon_2_1019,skeletonWarrior_2_3062,deathKnight_2_1019</t>
   </si>
   <si>
@@ -3520,9 +3457,6 @@
     <t>redDragon_3_27,deathKnight_2_3028,skeletonArcher_2_4542,meatWagon_2_755,skeletonWarrior_2_1513</t>
   </si>
   <si>
-    <t>redDragon_3_27,ballista_1_3046,sentinel_1_9138,horseArhcer_1_3046,ranger_1_3046</t>
-  </si>
-  <si>
     <t>redDragon_3_27,crossbowman_1_12254,ballista_1_2296,sentinel_1_6127,lancer_1_1530</t>
   </si>
   <si>
@@ -3532,9 +3466,6 @@
     <t>redDragon_3_27,horseArcher_1_6197,crossbowman_1_9296,ballista_1_1548,sentinel_1_3098</t>
   </si>
   <si>
-    <t>redDragon_3_27,ballista_1_3116,sentinel_1_9349,horseArhcer_1_3116,crossbowman_1_3116</t>
-  </si>
-  <si>
     <t>redDragon_3_27,skeletonArcher_2_6268,meatWagon_2_1173,skeletonWarrior_2_3134,deathKnight_2_783</t>
   </si>
   <si>
@@ -3592,9 +3523,6 @@
     <t>redDragon_3_29,deathKnight_2_3242,skeletonArcher_2_5190,meatWagon_2_971,skeletonWarrior_2_2595</t>
   </si>
   <si>
-    <t>redDragon_3_29,ballista_1_3479,sentinel_1_10439,horseArhcer_1_3479,crossbowman_1_3479</t>
-  </si>
-  <si>
     <t>redDragon_3_29,crossbowman_1_13994,ballista_1_2622,sentinel_1_6997,horseArcher_1_1748</t>
   </si>
   <si>
@@ -3640,9 +3568,6 @@
     <t>redDragon_3_30,horseArcher_1_7642,crossbowman_1_11463,ballista_1_1909,swordsman_1_3821</t>
   </si>
   <si>
-    <t>redDragon_3_30,ballista_1_3850,sentinel_1_11550,horseArhcer_1_3850,ranger_1_3850</t>
-  </si>
-  <si>
     <t>redDragon_3_30,skeletonArcher_2_7758,meatWagon_2_1453,skeletonWarrior_2_3879,deathKnight_2_969</t>
   </si>
   <si>
@@ -3700,9 +3625,6 @@
     <t>blueDragon_4_31,deathKnight_2_4418,skeletonArcher_2_6626,meatWagon_2_1102,skeletonWarrior_2_2208</t>
   </si>
   <si>
-    <t>blueDragon_4_31,ballista_1_4449,sentinel_1_13347,horseArhcer_1_4449,ranger_1_4449</t>
-  </si>
-  <si>
     <t>blueDragon_4_31,crossbowman_1_17920,ballista_1_3358,sentinel_1_8960,lancer_1_2238</t>
   </si>
   <si>
@@ -3712,9 +3634,6 @@
     <t>blueDragon_4_32,horseArcher_1_9085,crossbowman_1_13627,ballista_1_2270,sentinel_1_4542</t>
   </si>
   <si>
-    <t>blueDragon_4_32,ballista_1_4573,sentinel_1_13721,horseArhcer_1_4573,crossbowman_1_4573</t>
-  </si>
-  <si>
     <t>blueDragon_4_32,skeletonArcher_2_8632,meatWagon_2_1726,skeletonWarrior_2_5178,deathKnight_2_1726</t>
   </si>
   <si>
@@ -3772,9 +3691,6 @@
     <t>blueDragon_4_33,deathKnight_2_5187,skeletonArcher_2_7780,meatWagon_2_1295,skeletonWarrior_2_2592</t>
   </si>
   <si>
-    <t>blueDragon_4_33,ballista_1_5220,sentinel_1_15662,horseArhcer_1_5220,crossbowman_1_5220</t>
-  </si>
-  <si>
     <t>blueDragon_4_33,crossbowman_1_21016,ballista_1_3938,sentinel_1_10508,horseArcher_1_2625</t>
   </si>
   <si>
@@ -3820,9 +3736,6 @@
     <t>blueDragon_4_34,horseArcher_1_11464,crossbowman_1_17196,ballista_1_2864,swordsman_1_5732</t>
   </si>
   <si>
-    <t>blueDragon_4_34,ballista_1_5767,sentinel_1_17301,horseArhcer_1_5767,ranger_1_5767</t>
-  </si>
-  <si>
     <t>blueDragon_4_35,skeletonArcher_2_11604,meatWagon_2_2173,skeletonWarrior_2_5802,deathKnight_2_1449</t>
   </si>
   <si>
@@ -3880,9 +3793,6 @@
     <t>greenDragon_4_36,deathKnight_2_6449,skeletonArcher_2_9672,meatWagon_2_1610,skeletonWarrior_2_3223</t>
   </si>
   <si>
-    <t>greenDragon_4_36,ballista_1_6486,sentinel_1_19458,horseArhcer_1_6486,ranger_1_6486</t>
-  </si>
-  <si>
     <t>greenDragon_4_36,crossbowman_1_26092,ballista_1_4890,sentinel_1_13046,lancer_1_3260</t>
   </si>
   <si>
@@ -3892,9 +3802,6 @@
     <t>greenDragon_4_36,horseArcher_1_13195,crossbowman_1_19792,ballista_1_3297,sentinel_1_6597</t>
   </si>
   <si>
-    <t>greenDragon_4_36,ballista_1_6634,sentinel_1_19904,horseArhcer_1_6634,crossbowman_1_6634</t>
-  </si>
-  <si>
     <t>greenDragon_4_36,skeletonArcher_2_13344,meatWagon_2_2499,skeletonWarrior_2_6672,deathKnight_2_1667</t>
   </si>
   <si>
@@ -3952,9 +3859,6 @@
     <t>greenDragon_4_38,deathKnight_2_7362,skeletonArcher_2_11042,meatWagon_2_1838,skeletonWarrior_2_3679</t>
   </si>
   <si>
-    <t>greenDragon_4_38,ballista_1_7401,sentinel_1_22205,horseArhcer_1_7401,crossbowman_1_7401</t>
-  </si>
-  <si>
     <t>greenDragon_4_38,crossbowman_1_29764,ballista_1_5578,sentinel_1_14882,horseArcher_1_3719</t>
   </si>
   <si>
@@ -4000,9 +3904,6 @@
     <t>greenDragon_4_39,horseArcher_1_16006,crossbowman_1_24009,ballista_1_4000,swordsman_1_8003</t>
   </si>
   <si>
-    <t>greenDragon_4_39,ballista_1_8044,sentinel_1_24132,horseArhcer_1_8044,ranger_1_8044</t>
-  </si>
-  <si>
     <t>greenDragon_4_39,skeletonArcher_2_16170,meatWagon_2_3030,skeletonWarrior_2_8085,deathKnight_2_2020</t>
   </si>
   <si>
@@ -4157,6 +4058,105 @@
   </si>
   <si>
     <t>soldierMaterials:deathHand:124:25,soldierMaterials:heroBones:124:25,soldierMaterials:soulStone:124:25,soldierMaterials:magicBox:124:25</t>
+  </si>
+  <si>
+    <t>blueDragon_1_2,ballista_1_60,sentinel_1_180,horseArcher_1_60,ranger_1_60</t>
+  </si>
+  <si>
+    <t>blueDragon_1_4,ballista_1_160,sentinel_1_480,horseArcher_1_160,ranger_1_160</t>
+  </si>
+  <si>
+    <t>blueDragon_1_4,ballista_1_180,sentinel_1_540,horseArcher_1_180,crossbowman_1_180</t>
+  </si>
+  <si>
+    <t>greenDragon_1_6,ballista_1_280,sentinel_1_840,horseArcher_1_280,crossbowman_1_280</t>
+  </si>
+  <si>
+    <t>greenDragon_1_7,ballista_1_360,sentinel_1_1080,horseArcher_1_360,ranger_1_360</t>
+  </si>
+  <si>
+    <t>redDragon_1_8,ballista_1_460,sentinel_1_1380,horseArcher_1_460,ranger_1_460</t>
+  </si>
+  <si>
+    <t>redDragon_1_9,ballista_1_480,sentinel_1_1440,horseArcher_1_480,crossbowman_1_480</t>
+  </si>
+  <si>
+    <t>redDragon_1_10,ballista_1_580,sentinel_1_1740,horseArcher_1_580,crossbowman_1_580</t>
+  </si>
+  <si>
+    <t>blueDragon_2_11,ballista_1_660,sentinel_1_1980,horseArcher_1_660,ranger_1_660</t>
+  </si>
+  <si>
+    <t>blueDragon_2_13,ballista_1_760,sentinel_1_2280,horseArcher_1_760,ranger_1_760</t>
+  </si>
+  <si>
+    <t>blueDragon_2_13,ballista_1_780,sentinel_1_2340,horseArcher_1_780,crossbowman_1_780</t>
+  </si>
+  <si>
+    <t>blueDragon_2_15,ballista_1_928,sentinel_1_2785,horseArcher_1_928,crossbowman_1_928</t>
+  </si>
+  <si>
+    <t>redDragon_2_16,ballista_1_1089,sentinel_1_3268,horseArcher_1_1089,ranger_1_1089</t>
+  </si>
+  <si>
+    <t>redDragon_2_18,ballista_1_1309,sentinel_1_3927,horseArcher_1_1309,ranger_1_1309</t>
+  </si>
+  <si>
+    <t>redDragon_2_18,ballista_1_1355,sentinel_1_4066,horseArcher_1_1355,crossbowman_1_1355</t>
+  </si>
+  <si>
+    <t>redDragon_2_19,ballista_1_1598,sentinel_1_4796,horseArcher_1_1598,crossbowman_1_1598</t>
+  </si>
+  <si>
+    <t>greenDragon_3_21,ballista_1_1808,sentinel_1_5424,horseArcher_1_1808,ranger_1_1808</t>
+  </si>
+  <si>
+    <t>greenDragon_3_22,ballista_1_2087,sentinel_1_6262,horseArcher_1_2087,ranger_1_2087</t>
+  </si>
+  <si>
+    <t>greenDragon_3_22,ballista_1_2145,sentinel_1_6437,horseArcher_1_2145,crossbowman_1_2145</t>
+  </si>
+  <si>
+    <t>greenDragon_3_24,ballista_1_2449,sentinel_1_7348,horseArcher_1_2449,crossbowman_1_2449</t>
+  </si>
+  <si>
+    <t>greenDragon_3_25,ballista_1_2706,sentinel_1_8119,horseArcher_1_2706,ranger_1_2706</t>
+  </si>
+  <si>
+    <t>redDragon_3_27,ballista_1_3046,sentinel_1_9138,horseArcher_1_3046,ranger_1_3046</t>
+  </si>
+  <si>
+    <t>redDragon_3_27,ballista_1_3116,sentinel_1_9349,horseArcher_1_3116,crossbowman_1_3116</t>
+  </si>
+  <si>
+    <t>redDragon_3_29,ballista_1_3479,sentinel_1_10439,horseArcher_1_3479,crossbowman_1_3479</t>
+  </si>
+  <si>
+    <t>redDragon_3_30,ballista_1_3850,sentinel_1_11550,horseArcher_1_3850,ranger_1_3850</t>
+  </si>
+  <si>
+    <t>blueDragon_4_31,ballista_1_4449,sentinel_1_13347,horseArcher_1_4449,ranger_1_4449</t>
+  </si>
+  <si>
+    <t>blueDragon_4_32,ballista_1_4573,sentinel_1_13721,horseArcher_1_4573,crossbowman_1_4573</t>
+  </si>
+  <si>
+    <t>blueDragon_4_33,ballista_1_5220,sentinel_1_15662,horseArcher_1_5220,crossbowman_1_5220</t>
+  </si>
+  <si>
+    <t>blueDragon_4_34,ballista_1_5767,sentinel_1_17301,horseArcher_1_5767,ranger_1_5767</t>
+  </si>
+  <si>
+    <t>greenDragon_4_36,ballista_1_6486,sentinel_1_19458,horseArcher_1_6486,ranger_1_6486</t>
+  </si>
+  <si>
+    <t>greenDragon_4_36,ballista_1_6634,sentinel_1_19904,horseArcher_1_6634,crossbowman_1_6634</t>
+  </si>
+  <si>
+    <t>greenDragon_4_38,ballista_1_7401,sentinel_1_22205,horseArcher_1_7401,crossbowman_1_7401</t>
+  </si>
+  <si>
+    <t>greenDragon_4_39,ballista_1_8044,sentinel_1_24132,horseArcher_1_8044,ranger_1_8044</t>
   </si>
 </sst>
 </file>
@@ -6602,8 +6602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="H501" sqref="H501"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6717,7 +6717,7 @@
         <v>611</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>1330</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -7000,7 +7000,7 @@
         <v>955</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>982</v>
+        <v>1339</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>617</v>
@@ -7029,7 +7029,7 @@
         <v>625</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>1331</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15">
@@ -7341,7 +7341,7 @@
         <v>639</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>1332</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -7520,7 +7520,7 @@
         <v>955</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>983</v>
+        <v>1340</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>628</v>
@@ -7624,7 +7624,7 @@
         <v>955</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>984</v>
+        <v>1341</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>631</v>
@@ -7653,7 +7653,7 @@
         <v>653</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>1333</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -7965,7 +7965,7 @@
         <v>667</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>1334</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -8144,7 +8144,7 @@
         <v>956</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>985</v>
+        <v>1342</v>
       </c>
       <c r="H59" s="16" t="s">
         <v>642</v>
@@ -8277,7 +8277,7 @@
         <v>681</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>1335</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="20" customHeight="1">
@@ -8560,7 +8560,7 @@
         <v>956</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>986</v>
+        <v>1343</v>
       </c>
       <c r="H75" s="16" t="s">
         <v>652</v>
@@ -8589,7 +8589,7 @@
         <v>695</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>1336</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="20" customHeight="1">
@@ -8901,7 +8901,7 @@
         <v>709</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>1337</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="20" customHeight="1">
@@ -9080,7 +9080,7 @@
         <v>957</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>987</v>
+        <v>1344</v>
       </c>
       <c r="H95" s="16" t="s">
         <v>663</v>
@@ -9184,7 +9184,7 @@
         <v>957</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>988</v>
+        <v>1345</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>666</v>
@@ -9213,7 +9213,7 @@
         <v>723</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>1338</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="20" customHeight="1">
@@ -9525,7 +9525,7 @@
         <v>737</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>1339</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="20" customHeight="1">
@@ -9704,7 +9704,7 @@
         <v>957</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>989</v>
+        <v>1346</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>677</v>
@@ -9837,7 +9837,7 @@
         <v>751</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>1340</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="20" customHeight="1">
@@ -10120,7 +10120,7 @@
         <v>955</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>990</v>
+        <v>1347</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>687</v>
@@ -10149,7 +10149,7 @@
         <v>765</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>1341</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="20" customHeight="1">
@@ -10461,7 +10461,7 @@
         <v>779</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>1342</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="20" customHeight="1">
@@ -10640,7 +10640,7 @@
         <v>955</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>991</v>
+        <v>1348</v>
       </c>
       <c r="H155" s="16" t="s">
         <v>698</v>
@@ -10744,7 +10744,7 @@
         <v>955</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>992</v>
+        <v>1349</v>
       </c>
       <c r="H159" s="16" t="s">
         <v>701</v>
@@ -10773,7 +10773,7 @@
         <v>793</v>
       </c>
       <c r="H160" s="16" t="s">
-        <v>1343</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="20" customHeight="1">
@@ -11004,7 +11004,7 @@
         <v>955</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="H169" s="16" t="s">
         <v>707</v>
@@ -11030,7 +11030,7 @@
         <v>955</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="H170" s="16" t="s">
         <v>708</v>
@@ -11056,7 +11056,7 @@
         <v>955</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="H171" s="16" t="s">
         <v>708</v>
@@ -11082,10 +11082,10 @@
         <v>955</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>1344</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="20" customHeight="1">
@@ -11108,7 +11108,7 @@
         <v>955</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="H173" s="16" t="s">
         <v>708</v>
@@ -11134,7 +11134,7 @@
         <v>955</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="H174" s="16" t="s">
         <v>711</v>
@@ -11160,7 +11160,7 @@
         <v>955</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="H175" s="16" t="s">
         <v>710</v>
@@ -11186,7 +11186,7 @@
         <v>955</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="H176" s="16" t="s">
         <v>711</v>
@@ -11212,7 +11212,7 @@
         <v>955</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="H177" s="16" t="s">
         <v>711</v>
@@ -11238,7 +11238,7 @@
         <v>955</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="H178" s="16" t="s">
         <v>714</v>
@@ -11264,7 +11264,7 @@
         <v>955</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>1003</v>
+        <v>1350</v>
       </c>
       <c r="H179" s="16" t="s">
         <v>712</v>
@@ -11290,7 +11290,7 @@
         <v>955</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="H180" s="16" t="s">
         <v>712</v>
@@ -11316,7 +11316,7 @@
         <v>955</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="H181" s="16" t="s">
         <v>714</v>
@@ -11342,7 +11342,7 @@
         <v>955</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="H182" s="16" t="s">
         <v>715</v>
@@ -11368,7 +11368,7 @@
         <v>955</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="H183" s="16" t="s">
         <v>715</v>
@@ -11394,10 +11394,10 @@
         <v>955</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>1345</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="20" customHeight="1">
@@ -11420,7 +11420,7 @@
         <v>955</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="H185" s="16" t="s">
         <v>715</v>
@@ -11446,7 +11446,7 @@
         <v>955</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="H186" s="16" t="s">
         <v>718</v>
@@ -11472,7 +11472,7 @@
         <v>955</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="H187" s="16" t="s">
         <v>717</v>
@@ -11498,7 +11498,7 @@
         <v>955</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="H188" s="16" t="s">
         <v>718</v>
@@ -11524,7 +11524,7 @@
         <v>955</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="H189" s="16" t="s">
         <v>718</v>
@@ -11550,7 +11550,7 @@
         <v>955</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H190" s="16" t="s">
         <v>721</v>
@@ -11576,7 +11576,7 @@
         <v>957</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="H191" s="16" t="s">
         <v>719</v>
@@ -11602,7 +11602,7 @@
         <v>957</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="H192" s="16" t="s">
         <v>719</v>
@@ -11628,7 +11628,7 @@
         <v>957</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="H193" s="16" t="s">
         <v>721</v>
@@ -11654,7 +11654,7 @@
         <v>957</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="H194" s="16" t="s">
         <v>722</v>
@@ -11680,7 +11680,7 @@
         <v>957</v>
       </c>
       <c r="G195" s="17" t="s">
-        <v>1019</v>
+        <v>1351</v>
       </c>
       <c r="H195" s="16" t="s">
         <v>722</v>
@@ -11706,10 +11706,10 @@
         <v>957</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>1346</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="20" customHeight="1">
@@ -11732,7 +11732,7 @@
         <v>957</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="H197" s="16" t="s">
         <v>722</v>
@@ -11758,7 +11758,7 @@
         <v>957</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="H198" s="16" t="s">
         <v>725</v>
@@ -11784,7 +11784,7 @@
         <v>957</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="H199" s="16" t="s">
         <v>724</v>
@@ -11810,7 +11810,7 @@
         <v>957</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="H200" s="16" t="s">
         <v>725</v>
@@ -11836,7 +11836,7 @@
         <v>957</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="H201" s="16" t="s">
         <v>725</v>
@@ -11862,7 +11862,7 @@
         <v>957</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="H202" s="16" t="s">
         <v>728</v>
@@ -11888,7 +11888,7 @@
         <v>957</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="H203" s="16" t="s">
         <v>726</v>
@@ -11914,7 +11914,7 @@
         <v>957</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="H204" s="16" t="s">
         <v>726</v>
@@ -11940,7 +11940,7 @@
         <v>957</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="H205" s="16" t="s">
         <v>728</v>
@@ -11966,7 +11966,7 @@
         <v>957</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="H206" s="16" t="s">
         <v>729</v>
@@ -11992,7 +11992,7 @@
         <v>957</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="H207" s="16" t="s">
         <v>729</v>
@@ -12018,10 +12018,10 @@
         <v>957</v>
       </c>
       <c r="G208" s="17" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>1347</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="20" customHeight="1">
@@ -12044,7 +12044,7 @@
         <v>957</v>
       </c>
       <c r="G209" s="17" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="H209" s="16" t="s">
         <v>729</v>
@@ -12070,7 +12070,7 @@
         <v>957</v>
       </c>
       <c r="G210" s="17" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="H210" s="16" t="s">
         <v>732</v>
@@ -12096,7 +12096,7 @@
         <v>957</v>
       </c>
       <c r="G211" s="17" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="H211" s="16" t="s">
         <v>731</v>
@@ -12122,7 +12122,7 @@
         <v>957</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="H212" s="16" t="s">
         <v>732</v>
@@ -12148,7 +12148,7 @@
         <v>957</v>
       </c>
       <c r="G213" s="17" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="H213" s="16" t="s">
         <v>732</v>
@@ -12174,7 +12174,7 @@
         <v>957</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="H214" s="16" t="s">
         <v>735</v>
@@ -12200,7 +12200,7 @@
         <v>957</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>1039</v>
+        <v>1352</v>
       </c>
       <c r="H215" s="16" t="s">
         <v>733</v>
@@ -12226,7 +12226,7 @@
         <v>957</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="H216" s="16" t="s">
         <v>733</v>
@@ -12252,7 +12252,7 @@
         <v>957</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="H217" s="16" t="s">
         <v>735</v>
@@ -12278,7 +12278,7 @@
         <v>957</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="H218" s="16" t="s">
         <v>736</v>
@@ -12304,7 +12304,7 @@
         <v>957</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>1043</v>
+        <v>1353</v>
       </c>
       <c r="H219" s="16" t="s">
         <v>736</v>
@@ -12330,10 +12330,10 @@
         <v>957</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="H220" s="16" t="s">
-        <v>1348</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="20" customHeight="1">
@@ -12356,7 +12356,7 @@
         <v>957</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="H221" s="16" t="s">
         <v>736</v>
@@ -12382,7 +12382,7 @@
         <v>957</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="H222" s="16" t="s">
         <v>739</v>
@@ -12408,7 +12408,7 @@
         <v>957</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="H223" s="16" t="s">
         <v>738</v>
@@ -12434,7 +12434,7 @@
         <v>957</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="H224" s="16" t="s">
         <v>739</v>
@@ -12460,7 +12460,7 @@
         <v>957</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="H225" s="16" t="s">
         <v>739</v>
@@ -12486,7 +12486,7 @@
         <v>957</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="H226" s="16" t="s">
         <v>742</v>
@@ -12512,7 +12512,7 @@
         <v>957</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="H227" s="16" t="s">
         <v>740</v>
@@ -12538,7 +12538,7 @@
         <v>957</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="H228" s="16" t="s">
         <v>740</v>
@@ -12564,7 +12564,7 @@
         <v>957</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="H229" s="16" t="s">
         <v>742</v>
@@ -12590,7 +12590,7 @@
         <v>957</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="H230" s="16" t="s">
         <v>743</v>
@@ -12616,7 +12616,7 @@
         <v>957</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="H231" s="16" t="s">
         <v>743</v>
@@ -12642,10 +12642,10 @@
         <v>957</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="H232" s="16" t="s">
-        <v>1349</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="20" customHeight="1">
@@ -12668,7 +12668,7 @@
         <v>957</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="H233" s="16" t="s">
         <v>743</v>
@@ -12694,7 +12694,7 @@
         <v>957</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="H234" s="16" t="s">
         <v>746</v>
@@ -12720,7 +12720,7 @@
         <v>957</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="H235" s="16" t="s">
         <v>745</v>
@@ -12746,7 +12746,7 @@
         <v>957</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="H236" s="16" t="s">
         <v>746</v>
@@ -12772,7 +12772,7 @@
         <v>957</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="H237" s="16" t="s">
         <v>746</v>
@@ -12798,7 +12798,7 @@
         <v>957</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="H238" s="16" t="s">
         <v>749</v>
@@ -12824,7 +12824,7 @@
         <v>957</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>1063</v>
+        <v>1354</v>
       </c>
       <c r="H239" s="16" t="s">
         <v>747</v>
@@ -12850,7 +12850,7 @@
         <v>957</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
       <c r="H240" s="16" t="s">
         <v>747</v>
@@ -12876,7 +12876,7 @@
         <v>957</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
       <c r="H241" s="16" t="s">
         <v>749</v>
@@ -12902,7 +12902,7 @@
         <v>957</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="H242" s="16" t="s">
         <v>750</v>
@@ -12928,7 +12928,7 @@
         <v>957</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="H243" s="16" t="s">
         <v>750</v>
@@ -12954,10 +12954,10 @@
         <v>957</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="H244" s="16" t="s">
-        <v>1350</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="20" customHeight="1">
@@ -12980,7 +12980,7 @@
         <v>957</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="H245" s="16" t="s">
         <v>750</v>
@@ -13006,7 +13006,7 @@
         <v>957</v>
       </c>
       <c r="G246" s="17" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="H246" s="16" t="s">
         <v>753</v>
@@ -13032,7 +13032,7 @@
         <v>957</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="H247" s="16" t="s">
         <v>752</v>
@@ -13058,7 +13058,7 @@
         <v>957</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="H248" s="16" t="s">
         <v>753</v>
@@ -13084,7 +13084,7 @@
         <v>957</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="H249" s="16" t="s">
         <v>753</v>
@@ -13110,7 +13110,7 @@
         <v>957</v>
       </c>
       <c r="G250" s="17" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="H250" s="16" t="s">
         <v>756</v>
@@ -13136,7 +13136,7 @@
         <v>957</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="H251" s="16" t="s">
         <v>754</v>
@@ -13162,7 +13162,7 @@
         <v>957</v>
       </c>
       <c r="G252" s="17" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="H252" s="16" t="s">
         <v>754</v>
@@ -13188,7 +13188,7 @@
         <v>957</v>
       </c>
       <c r="G253" s="17" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
       <c r="H253" s="16" t="s">
         <v>756</v>
@@ -13214,7 +13214,7 @@
         <v>956</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
       <c r="H254" s="16" t="s">
         <v>757</v>
@@ -13240,7 +13240,7 @@
         <v>956</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>1079</v>
+        <v>1355</v>
       </c>
       <c r="H255" s="16" t="s">
         <v>757</v>
@@ -13266,10 +13266,10 @@
         <v>956</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="H256" s="16" t="s">
-        <v>1351</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="20" customHeight="1">
@@ -13292,7 +13292,7 @@
         <v>956</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="H257" s="16" t="s">
         <v>757</v>
@@ -13318,7 +13318,7 @@
         <v>956</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="H258" s="16" t="s">
         <v>760</v>
@@ -13344,7 +13344,7 @@
         <v>956</v>
       </c>
       <c r="G259" s="17" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="H259" s="16" t="s">
         <v>759</v>
@@ -13370,7 +13370,7 @@
         <v>956</v>
       </c>
       <c r="G260" s="17" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="H260" s="16" t="s">
         <v>760</v>
@@ -13396,7 +13396,7 @@
         <v>956</v>
       </c>
       <c r="G261" s="17" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="H261" s="16" t="s">
         <v>760</v>
@@ -13422,7 +13422,7 @@
         <v>956</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="H262" s="16" t="s">
         <v>763</v>
@@ -13448,7 +13448,7 @@
         <v>956</v>
       </c>
       <c r="G263" s="17" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="H263" s="16" t="s">
         <v>761</v>
@@ -13474,7 +13474,7 @@
         <v>956</v>
       </c>
       <c r="G264" s="17" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="H264" s="16" t="s">
         <v>761</v>
@@ -13500,7 +13500,7 @@
         <v>956</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="H265" s="16" t="s">
         <v>763</v>
@@ -13526,7 +13526,7 @@
         <v>956</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="H266" s="16" t="s">
         <v>764</v>
@@ -13552,7 +13552,7 @@
         <v>956</v>
       </c>
       <c r="G267" s="17" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="H267" s="16" t="s">
         <v>764</v>
@@ -13578,10 +13578,10 @@
         <v>956</v>
       </c>
       <c r="G268" s="17" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="H268" s="16" t="s">
-        <v>1352</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="20" customHeight="1">
@@ -13604,7 +13604,7 @@
         <v>956</v>
       </c>
       <c r="G269" s="17" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="H269" s="16" t="s">
         <v>764</v>
@@ -13630,7 +13630,7 @@
         <v>956</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="H270" s="16" t="s">
         <v>767</v>
@@ -13656,7 +13656,7 @@
         <v>956</v>
       </c>
       <c r="G271" s="17" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="H271" s="16" t="s">
         <v>766</v>
@@ -13682,7 +13682,7 @@
         <v>956</v>
       </c>
       <c r="G272" s="17" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="H272" s="16" t="s">
         <v>767</v>
@@ -13708,7 +13708,7 @@
         <v>956</v>
       </c>
       <c r="G273" s="17" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="H273" s="16" t="s">
         <v>767</v>
@@ -13734,7 +13734,7 @@
         <v>956</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="H274" s="16" t="s">
         <v>770</v>
@@ -13760,7 +13760,7 @@
         <v>956</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>1099</v>
+        <v>1356</v>
       </c>
       <c r="H275" s="16" t="s">
         <v>768</v>
@@ -13786,7 +13786,7 @@
         <v>956</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
       <c r="H276" s="16" t="s">
         <v>768</v>
@@ -13812,7 +13812,7 @@
         <v>956</v>
       </c>
       <c r="G277" s="17" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="H277" s="16" t="s">
         <v>770</v>
@@ -13838,7 +13838,7 @@
         <v>956</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="H278" s="16" t="s">
         <v>771</v>
@@ -13864,7 +13864,7 @@
         <v>956</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>1103</v>
+        <v>1357</v>
       </c>
       <c r="H279" s="16" t="s">
         <v>771</v>
@@ -13890,10 +13890,10 @@
         <v>956</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="H280" s="16" t="s">
-        <v>1353</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="20" customHeight="1">
@@ -13916,7 +13916,7 @@
         <v>956</v>
       </c>
       <c r="G281" s="17" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="H281" s="16" t="s">
         <v>771</v>
@@ -13942,7 +13942,7 @@
         <v>956</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="H282" s="16" t="s">
         <v>774</v>
@@ -13968,7 +13968,7 @@
         <v>956</v>
       </c>
       <c r="G283" s="17" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="H283" s="16" t="s">
         <v>773</v>
@@ -13994,7 +13994,7 @@
         <v>956</v>
       </c>
       <c r="G284" s="17" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="H284" s="16" t="s">
         <v>774</v>
@@ -14020,7 +14020,7 @@
         <v>956</v>
       </c>
       <c r="G285" s="17" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="H285" s="16" t="s">
         <v>774</v>
@@ -14046,7 +14046,7 @@
         <v>956</v>
       </c>
       <c r="G286" s="17" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="H286" s="16" t="s">
         <v>777</v>
@@ -14072,7 +14072,7 @@
         <v>956</v>
       </c>
       <c r="G287" s="17" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="H287" s="16" t="s">
         <v>775</v>
@@ -14098,7 +14098,7 @@
         <v>956</v>
       </c>
       <c r="G288" s="17" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="H288" s="16" t="s">
         <v>775</v>
@@ -14124,7 +14124,7 @@
         <v>956</v>
       </c>
       <c r="G289" s="17" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="H289" s="16" t="s">
         <v>777</v>
@@ -14150,7 +14150,7 @@
         <v>956</v>
       </c>
       <c r="G290" s="17" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="H290" s="16" t="s">
         <v>778</v>
@@ -14176,7 +14176,7 @@
         <v>956</v>
       </c>
       <c r="G291" s="17" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="H291" s="16" t="s">
         <v>778</v>
@@ -14202,10 +14202,10 @@
         <v>956</v>
       </c>
       <c r="G292" s="17" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="H292" s="16" t="s">
-        <v>1354</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="20" customHeight="1">
@@ -14228,7 +14228,7 @@
         <v>956</v>
       </c>
       <c r="G293" s="17" t="s">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="H293" s="16" t="s">
         <v>778</v>
@@ -14254,7 +14254,7 @@
         <v>956</v>
       </c>
       <c r="G294" s="17" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="H294" s="16" t="s">
         <v>781</v>
@@ -14280,7 +14280,7 @@
         <v>956</v>
       </c>
       <c r="G295" s="17" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="H295" s="16" t="s">
         <v>780</v>
@@ -14306,7 +14306,7 @@
         <v>956</v>
       </c>
       <c r="G296" s="17" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="H296" s="16" t="s">
         <v>781</v>
@@ -14332,7 +14332,7 @@
         <v>956</v>
       </c>
       <c r="G297" s="17" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="H297" s="16" t="s">
         <v>781</v>
@@ -14358,7 +14358,7 @@
         <v>956</v>
       </c>
       <c r="G298" s="17" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="H298" s="16" t="s">
         <v>784</v>
@@ -14384,7 +14384,7 @@
         <v>956</v>
       </c>
       <c r="G299" s="17" t="s">
-        <v>1123</v>
+        <v>1358</v>
       </c>
       <c r="H299" s="16" t="s">
         <v>782</v>
@@ -14410,7 +14410,7 @@
         <v>956</v>
       </c>
       <c r="G300" s="17" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="H300" s="16" t="s">
         <v>782</v>
@@ -14436,7 +14436,7 @@
         <v>956</v>
       </c>
       <c r="G301" s="17" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="H301" s="16" t="s">
         <v>784</v>
@@ -14462,7 +14462,7 @@
         <v>956</v>
       </c>
       <c r="G302" s="17" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
       <c r="H302" s="16" t="s">
         <v>785</v>
@@ -14488,7 +14488,7 @@
         <v>956</v>
       </c>
       <c r="G303" s="17" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="H303" s="16" t="s">
         <v>785</v>
@@ -14514,10 +14514,10 @@
         <v>956</v>
       </c>
       <c r="G304" s="17" t="s">
-        <v>1128</v>
+        <v>1108</v>
       </c>
       <c r="H304" s="16" t="s">
-        <v>1355</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="20" customHeight="1">
@@ -14540,7 +14540,7 @@
         <v>956</v>
       </c>
       <c r="G305" s="17" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="H305" s="16" t="s">
         <v>785</v>
@@ -14566,7 +14566,7 @@
         <v>956</v>
       </c>
       <c r="G306" s="17" t="s">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="H306" s="16" t="s">
         <v>788</v>
@@ -14592,7 +14592,7 @@
         <v>956</v>
       </c>
       <c r="G307" s="17" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="H307" s="16" t="s">
         <v>787</v>
@@ -14618,7 +14618,7 @@
         <v>956</v>
       </c>
       <c r="G308" s="17" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="H308" s="16" t="s">
         <v>788</v>
@@ -14644,7 +14644,7 @@
         <v>956</v>
       </c>
       <c r="G309" s="17" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="H309" s="16" t="s">
         <v>788</v>
@@ -14670,7 +14670,7 @@
         <v>956</v>
       </c>
       <c r="G310" s="17" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="H310" s="16" t="s">
         <v>791</v>
@@ -14696,7 +14696,7 @@
         <v>956</v>
       </c>
       <c r="G311" s="17" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="H311" s="16" t="s">
         <v>789</v>
@@ -14722,7 +14722,7 @@
         <v>956</v>
       </c>
       <c r="G312" s="17" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="H312" s="16" t="s">
         <v>789</v>
@@ -14748,7 +14748,7 @@
         <v>956</v>
       </c>
       <c r="G313" s="17" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="H313" s="16" t="s">
         <v>791</v>
@@ -14774,7 +14774,7 @@
         <v>956</v>
       </c>
       <c r="G314" s="17" t="s">
-        <v>1138</v>
+        <v>1118</v>
       </c>
       <c r="H314" s="16" t="s">
         <v>792</v>
@@ -14800,7 +14800,7 @@
         <v>956</v>
       </c>
       <c r="G315" s="17" t="s">
-        <v>1139</v>
+        <v>1359</v>
       </c>
       <c r="H315" s="16" t="s">
         <v>792</v>
@@ -14826,10 +14826,10 @@
         <v>956</v>
       </c>
       <c r="G316" s="17" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="H316" s="16" t="s">
-        <v>1356</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="20" customHeight="1">
@@ -14852,7 +14852,7 @@
         <v>957</v>
       </c>
       <c r="G317" s="17" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="H317" s="16" t="s">
         <v>792</v>
@@ -14878,7 +14878,7 @@
         <v>957</v>
       </c>
       <c r="G318" s="17" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="H318" s="16" t="s">
         <v>795</v>
@@ -14904,7 +14904,7 @@
         <v>957</v>
       </c>
       <c r="G319" s="17" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="H319" s="16" t="s">
         <v>794</v>
@@ -14930,7 +14930,7 @@
         <v>957</v>
       </c>
       <c r="G320" s="17" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="H320" s="16" t="s">
         <v>795</v>
@@ -14956,7 +14956,7 @@
         <v>957</v>
       </c>
       <c r="G321" s="17" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="H321" s="16" t="s">
         <v>795</v>
@@ -14982,7 +14982,7 @@
         <v>957</v>
       </c>
       <c r="G322" s="17" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="H322" s="16" t="s">
         <v>798</v>
@@ -15008,7 +15008,7 @@
         <v>957</v>
       </c>
       <c r="G323" s="17" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="H323" s="16" t="s">
         <v>796</v>
@@ -15034,7 +15034,7 @@
         <v>957</v>
       </c>
       <c r="G324" s="17" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="H324" s="16" t="s">
         <v>796</v>
@@ -15060,7 +15060,7 @@
         <v>957</v>
       </c>
       <c r="G325" s="17" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="H325" s="16" t="s">
         <v>798</v>
@@ -15086,7 +15086,7 @@
         <v>957</v>
       </c>
       <c r="G326" s="17" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="H326" s="16" t="s">
         <v>799</v>
@@ -15112,7 +15112,7 @@
         <v>957</v>
       </c>
       <c r="G327" s="17" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="H327" s="16" t="s">
         <v>799</v>
@@ -15138,10 +15138,10 @@
         <v>957</v>
       </c>
       <c r="G328" s="17" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="H328" s="16" t="s">
-        <v>1357</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="20" customHeight="1">
@@ -15164,7 +15164,7 @@
         <v>957</v>
       </c>
       <c r="G329" s="17" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="H329" s="16" t="s">
         <v>799</v>
@@ -15190,7 +15190,7 @@
         <v>957</v>
       </c>
       <c r="G330" s="17" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>802</v>
@@ -15216,7 +15216,7 @@
         <v>957</v>
       </c>
       <c r="G331" s="17" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="H331" s="16" t="s">
         <v>801</v>
@@ -15242,7 +15242,7 @@
         <v>957</v>
       </c>
       <c r="G332" s="17" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="H332" s="16" t="s">
         <v>802</v>
@@ -15268,7 +15268,7 @@
         <v>957</v>
       </c>
       <c r="G333" s="17" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="H333" s="16" t="s">
         <v>802</v>
@@ -15294,7 +15294,7 @@
         <v>957</v>
       </c>
       <c r="G334" s="17" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
       <c r="H334" s="16" t="s">
         <v>804</v>
@@ -15320,7 +15320,7 @@
         <v>957</v>
       </c>
       <c r="G335" s="17" t="s">
-        <v>1159</v>
+        <v>1360</v>
       </c>
       <c r="H335" s="16" t="s">
         <v>803</v>
@@ -15346,7 +15346,7 @@
         <v>957</v>
       </c>
       <c r="G336" s="17" t="s">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="H336" s="16" t="s">
         <v>803</v>
@@ -15372,7 +15372,7 @@
         <v>957</v>
       </c>
       <c r="G337" s="17" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
       <c r="H337" s="16" t="s">
         <v>804</v>
@@ -15398,7 +15398,7 @@
         <v>957</v>
       </c>
       <c r="G338" s="17" t="s">
-        <v>1162</v>
+        <v>1140</v>
       </c>
       <c r="H338" s="16" t="s">
         <v>805</v>
@@ -15424,7 +15424,7 @@
         <v>957</v>
       </c>
       <c r="G339" s="17" t="s">
-        <v>1163</v>
+        <v>1361</v>
       </c>
       <c r="H339" s="16" t="s">
         <v>805</v>
@@ -15450,10 +15450,10 @@
         <v>957</v>
       </c>
       <c r="G340" s="17" t="s">
-        <v>1164</v>
+        <v>1141</v>
       </c>
       <c r="H340" s="16" t="s">
-        <v>1358</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="20" customHeight="1">
@@ -15476,7 +15476,7 @@
         <v>957</v>
       </c>
       <c r="G341" s="17" t="s">
-        <v>1165</v>
+        <v>1142</v>
       </c>
       <c r="H341" s="16" t="s">
         <v>805</v>
@@ -15502,7 +15502,7 @@
         <v>957</v>
       </c>
       <c r="G342" s="17" t="s">
-        <v>1166</v>
+        <v>1143</v>
       </c>
       <c r="H342" s="16" t="s">
         <v>807</v>
@@ -15528,7 +15528,7 @@
         <v>957</v>
       </c>
       <c r="G343" s="17" t="s">
-        <v>1167</v>
+        <v>1144</v>
       </c>
       <c r="H343" s="16" t="s">
         <v>806</v>
@@ -15554,7 +15554,7 @@
         <v>957</v>
       </c>
       <c r="G344" s="17" t="s">
-        <v>1168</v>
+        <v>1145</v>
       </c>
       <c r="H344" s="16" t="s">
         <v>807</v>
@@ -15580,7 +15580,7 @@
         <v>957</v>
       </c>
       <c r="G345" s="17" t="s">
-        <v>1169</v>
+        <v>1146</v>
       </c>
       <c r="H345" s="16" t="s">
         <v>807</v>
@@ -15606,7 +15606,7 @@
         <v>957</v>
       </c>
       <c r="G346" s="17" t="s">
-        <v>1170</v>
+        <v>1147</v>
       </c>
       <c r="H346" s="16" t="s">
         <v>809</v>
@@ -15632,7 +15632,7 @@
         <v>957</v>
       </c>
       <c r="G347" s="17" t="s">
-        <v>1171</v>
+        <v>1148</v>
       </c>
       <c r="H347" s="16" t="s">
         <v>808</v>
@@ -15658,7 +15658,7 @@
         <v>957</v>
       </c>
       <c r="G348" s="17" t="s">
-        <v>1172</v>
+        <v>1149</v>
       </c>
       <c r="H348" s="16" t="s">
         <v>808</v>
@@ -15684,7 +15684,7 @@
         <v>957</v>
       </c>
       <c r="G349" s="17" t="s">
-        <v>1173</v>
+        <v>1150</v>
       </c>
       <c r="H349" s="16" t="s">
         <v>809</v>
@@ -15710,7 +15710,7 @@
         <v>957</v>
       </c>
       <c r="G350" s="17" t="s">
-        <v>1174</v>
+        <v>1151</v>
       </c>
       <c r="H350" s="16" t="s">
         <v>810</v>
@@ -15736,7 +15736,7 @@
         <v>957</v>
       </c>
       <c r="G351" s="17" t="s">
-        <v>1175</v>
+        <v>1152</v>
       </c>
       <c r="H351" s="16" t="s">
         <v>810</v>
@@ -15762,10 +15762,10 @@
         <v>957</v>
       </c>
       <c r="G352" s="17" t="s">
-        <v>1176</v>
+        <v>1153</v>
       </c>
       <c r="H352" s="16" t="s">
-        <v>1359</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="20" customHeight="1">
@@ -15788,7 +15788,7 @@
         <v>957</v>
       </c>
       <c r="G353" s="17" t="s">
-        <v>1177</v>
+        <v>1154</v>
       </c>
       <c r="H353" s="16" t="s">
         <v>810</v>
@@ -15814,7 +15814,7 @@
         <v>957</v>
       </c>
       <c r="G354" s="17" t="s">
-        <v>1178</v>
+        <v>1155</v>
       </c>
       <c r="H354" s="16" t="s">
         <v>812</v>
@@ -15840,7 +15840,7 @@
         <v>957</v>
       </c>
       <c r="G355" s="17" t="s">
-        <v>1179</v>
+        <v>1156</v>
       </c>
       <c r="H355" s="16" t="s">
         <v>811</v>
@@ -15866,7 +15866,7 @@
         <v>957</v>
       </c>
       <c r="G356" s="17" t="s">
-        <v>1180</v>
+        <v>1157</v>
       </c>
       <c r="H356" s="16" t="s">
         <v>812</v>
@@ -15892,7 +15892,7 @@
         <v>957</v>
       </c>
       <c r="G357" s="17" t="s">
-        <v>1181</v>
+        <v>1158</v>
       </c>
       <c r="H357" s="16" t="s">
         <v>812</v>
@@ -15918,7 +15918,7 @@
         <v>957</v>
       </c>
       <c r="G358" s="17" t="s">
-        <v>1182</v>
+        <v>1159</v>
       </c>
       <c r="H358" s="16" t="s">
         <v>814</v>
@@ -15944,7 +15944,7 @@
         <v>957</v>
       </c>
       <c r="G359" s="17" t="s">
-        <v>1183</v>
+        <v>1362</v>
       </c>
       <c r="H359" s="16" t="s">
         <v>813</v>
@@ -15970,7 +15970,7 @@
         <v>957</v>
       </c>
       <c r="G360" s="17" t="s">
-        <v>1184</v>
+        <v>1160</v>
       </c>
       <c r="H360" s="16" t="s">
         <v>813</v>
@@ -15996,7 +15996,7 @@
         <v>957</v>
       </c>
       <c r="G361" s="17" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="H361" s="16" t="s">
         <v>814</v>
@@ -16022,7 +16022,7 @@
         <v>957</v>
       </c>
       <c r="G362" s="17" t="s">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="H362" s="16" t="s">
         <v>815</v>
@@ -16048,7 +16048,7 @@
         <v>957</v>
       </c>
       <c r="G363" s="17" t="s">
-        <v>1187</v>
+        <v>1163</v>
       </c>
       <c r="H363" s="16" t="s">
         <v>815</v>
@@ -16074,10 +16074,10 @@
         <v>957</v>
       </c>
       <c r="G364" s="17" t="s">
-        <v>1188</v>
+        <v>1164</v>
       </c>
       <c r="H364" s="16" t="s">
-        <v>1360</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="20" customHeight="1">
@@ -16100,7 +16100,7 @@
         <v>957</v>
       </c>
       <c r="G365" s="17" t="s">
-        <v>1189</v>
+        <v>1165</v>
       </c>
       <c r="H365" s="16" t="s">
         <v>815</v>
@@ -16126,7 +16126,7 @@
         <v>957</v>
       </c>
       <c r="G366" s="17" t="s">
-        <v>1190</v>
+        <v>1166</v>
       </c>
       <c r="H366" s="16" t="s">
         <v>817</v>
@@ -16152,7 +16152,7 @@
         <v>957</v>
       </c>
       <c r="G367" s="17" t="s">
-        <v>1191</v>
+        <v>1167</v>
       </c>
       <c r="H367" s="16" t="s">
         <v>816</v>
@@ -16178,7 +16178,7 @@
         <v>957</v>
       </c>
       <c r="G368" s="17" t="s">
-        <v>1192</v>
+        <v>1168</v>
       </c>
       <c r="H368" s="16" t="s">
         <v>817</v>
@@ -16204,7 +16204,7 @@
         <v>957</v>
       </c>
       <c r="G369" s="17" t="s">
-        <v>1193</v>
+        <v>1169</v>
       </c>
       <c r="H369" s="16" t="s">
         <v>817</v>
@@ -16230,7 +16230,7 @@
         <v>957</v>
       </c>
       <c r="G370" s="17" t="s">
-        <v>1194</v>
+        <v>1170</v>
       </c>
       <c r="H370" s="16" t="s">
         <v>819</v>
@@ -16256,7 +16256,7 @@
         <v>957</v>
       </c>
       <c r="G371" s="17" t="s">
-        <v>1195</v>
+        <v>1171</v>
       </c>
       <c r="H371" s="16" t="s">
         <v>818</v>
@@ -16282,7 +16282,7 @@
         <v>957</v>
       </c>
       <c r="G372" s="17" t="s">
-        <v>1196</v>
+        <v>1172</v>
       </c>
       <c r="H372" s="16" t="s">
         <v>818</v>
@@ -16308,7 +16308,7 @@
         <v>957</v>
       </c>
       <c r="G373" s="17" t="s">
-        <v>1197</v>
+        <v>1173</v>
       </c>
       <c r="H373" s="16" t="s">
         <v>819</v>
@@ -16334,7 +16334,7 @@
         <v>957</v>
       </c>
       <c r="G374" s="17" t="s">
-        <v>1198</v>
+        <v>1174</v>
       </c>
       <c r="H374" s="16" t="s">
         <v>820</v>
@@ -16360,7 +16360,7 @@
         <v>957</v>
       </c>
       <c r="G375" s="17" t="s">
-        <v>1199</v>
+        <v>1363</v>
       </c>
       <c r="H375" s="16" t="s">
         <v>820</v>
@@ -16386,10 +16386,10 @@
         <v>957</v>
       </c>
       <c r="G376" s="17" t="s">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="H376" s="16" t="s">
-        <v>1361</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="20" customHeight="1">
@@ -16412,7 +16412,7 @@
         <v>957</v>
       </c>
       <c r="G377" s="17" t="s">
-        <v>1201</v>
+        <v>1176</v>
       </c>
       <c r="H377" s="16" t="s">
         <v>820</v>
@@ -16438,7 +16438,7 @@
         <v>957</v>
       </c>
       <c r="G378" s="17" t="s">
-        <v>1202</v>
+        <v>1177</v>
       </c>
       <c r="H378" s="16" t="s">
         <v>822</v>
@@ -16464,7 +16464,7 @@
         <v>957</v>
       </c>
       <c r="G379" s="17" t="s">
-        <v>1203</v>
+        <v>1178</v>
       </c>
       <c r="H379" s="16" t="s">
         <v>821</v>
@@ -16490,7 +16490,7 @@
         <v>955</v>
       </c>
       <c r="G380" s="17" t="s">
-        <v>1204</v>
+        <v>1179</v>
       </c>
       <c r="H380" s="16" t="s">
         <v>822</v>
@@ -16516,7 +16516,7 @@
         <v>955</v>
       </c>
       <c r="G381" s="17" t="s">
-        <v>1205</v>
+        <v>1180</v>
       </c>
       <c r="H381" s="16" t="s">
         <v>822</v>
@@ -16542,7 +16542,7 @@
         <v>955</v>
       </c>
       <c r="G382" s="17" t="s">
-        <v>1206</v>
+        <v>1181</v>
       </c>
       <c r="H382" s="16" t="s">
         <v>824</v>
@@ -16568,7 +16568,7 @@
         <v>955</v>
       </c>
       <c r="G383" s="17" t="s">
-        <v>1207</v>
+        <v>1182</v>
       </c>
       <c r="H383" s="16" t="s">
         <v>823</v>
@@ -16594,7 +16594,7 @@
         <v>955</v>
       </c>
       <c r="G384" s="17" t="s">
-        <v>1208</v>
+        <v>1183</v>
       </c>
       <c r="H384" s="16" t="s">
         <v>823</v>
@@ -16620,7 +16620,7 @@
         <v>955</v>
       </c>
       <c r="G385" s="17" t="s">
-        <v>1209</v>
+        <v>1184</v>
       </c>
       <c r="H385" s="16" t="s">
         <v>824</v>
@@ -16646,7 +16646,7 @@
         <v>955</v>
       </c>
       <c r="G386" s="17" t="s">
-        <v>1210</v>
+        <v>1185</v>
       </c>
       <c r="H386" s="16" t="s">
         <v>825</v>
@@ -16672,7 +16672,7 @@
         <v>955</v>
       </c>
       <c r="G387" s="17" t="s">
-        <v>1211</v>
+        <v>1186</v>
       </c>
       <c r="H387" s="16" t="s">
         <v>825</v>
@@ -16698,10 +16698,10 @@
         <v>955</v>
       </c>
       <c r="G388" s="17" t="s">
-        <v>1212</v>
+        <v>1187</v>
       </c>
       <c r="H388" s="16" t="s">
-        <v>1362</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="20" customHeight="1">
@@ -16724,7 +16724,7 @@
         <v>955</v>
       </c>
       <c r="G389" s="17" t="s">
-        <v>1213</v>
+        <v>1188</v>
       </c>
       <c r="H389" s="16" t="s">
         <v>825</v>
@@ -16750,7 +16750,7 @@
         <v>955</v>
       </c>
       <c r="G390" s="17" t="s">
-        <v>1214</v>
+        <v>1189</v>
       </c>
       <c r="H390" s="16" t="s">
         <v>827</v>
@@ -16776,7 +16776,7 @@
         <v>955</v>
       </c>
       <c r="G391" s="17" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="H391" s="16" t="s">
         <v>826</v>
@@ -16802,7 +16802,7 @@
         <v>955</v>
       </c>
       <c r="G392" s="17" t="s">
-        <v>1216</v>
+        <v>1191</v>
       </c>
       <c r="H392" s="16" t="s">
         <v>827</v>
@@ -16828,7 +16828,7 @@
         <v>955</v>
       </c>
       <c r="G393" s="17" t="s">
-        <v>1217</v>
+        <v>1192</v>
       </c>
       <c r="H393" s="16" t="s">
         <v>827</v>
@@ -16854,7 +16854,7 @@
         <v>955</v>
       </c>
       <c r="G394" s="17" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="H394" s="16" t="s">
         <v>829</v>
@@ -16880,7 +16880,7 @@
         <v>955</v>
       </c>
       <c r="G395" s="17" t="s">
-        <v>1219</v>
+        <v>1364</v>
       </c>
       <c r="H395" s="16" t="s">
         <v>828</v>
@@ -16906,7 +16906,7 @@
         <v>955</v>
       </c>
       <c r="G396" s="17" t="s">
-        <v>1220</v>
+        <v>1194</v>
       </c>
       <c r="H396" s="16" t="s">
         <v>828</v>
@@ -16932,7 +16932,7 @@
         <v>955</v>
       </c>
       <c r="G397" s="17" t="s">
-        <v>1221</v>
+        <v>1195</v>
       </c>
       <c r="H397" s="16" t="s">
         <v>829</v>
@@ -16958,7 +16958,7 @@
         <v>955</v>
       </c>
       <c r="G398" s="17" t="s">
-        <v>1222</v>
+        <v>1196</v>
       </c>
       <c r="H398" s="16" t="s">
         <v>830</v>
@@ -16984,7 +16984,7 @@
         <v>955</v>
       </c>
       <c r="G399" s="17" t="s">
-        <v>1223</v>
+        <v>1365</v>
       </c>
       <c r="H399" s="16" t="s">
         <v>830</v>
@@ -17010,10 +17010,10 @@
         <v>955</v>
       </c>
       <c r="G400" s="17" t="s">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="H400" s="16" t="s">
-        <v>1363</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="20" customHeight="1">
@@ -17036,7 +17036,7 @@
         <v>955</v>
       </c>
       <c r="G401" s="17" t="s">
-        <v>1225</v>
+        <v>1198</v>
       </c>
       <c r="H401" s="16" t="s">
         <v>830</v>
@@ -17062,7 +17062,7 @@
         <v>955</v>
       </c>
       <c r="G402" s="17" t="s">
-        <v>1226</v>
+        <v>1199</v>
       </c>
       <c r="H402" s="16" t="s">
         <v>832</v>
@@ -17088,7 +17088,7 @@
         <v>955</v>
       </c>
       <c r="G403" s="17" t="s">
-        <v>1227</v>
+        <v>1200</v>
       </c>
       <c r="H403" s="16" t="s">
         <v>831</v>
@@ -17114,7 +17114,7 @@
         <v>955</v>
       </c>
       <c r="G404" s="17" t="s">
-        <v>1228</v>
+        <v>1201</v>
       </c>
       <c r="H404" s="16" t="s">
         <v>832</v>
@@ -17140,7 +17140,7 @@
         <v>955</v>
       </c>
       <c r="G405" s="17" t="s">
-        <v>1229</v>
+        <v>1202</v>
       </c>
       <c r="H405" s="16" t="s">
         <v>832</v>
@@ -17166,7 +17166,7 @@
         <v>955</v>
       </c>
       <c r="G406" s="17" t="s">
-        <v>1230</v>
+        <v>1203</v>
       </c>
       <c r="H406" s="16" t="s">
         <v>834</v>
@@ -17192,7 +17192,7 @@
         <v>955</v>
       </c>
       <c r="G407" s="17" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
       <c r="H407" s="16" t="s">
         <v>833</v>
@@ -17218,7 +17218,7 @@
         <v>955</v>
       </c>
       <c r="G408" s="17" t="s">
-        <v>1232</v>
+        <v>1205</v>
       </c>
       <c r="H408" s="16" t="s">
         <v>833</v>
@@ -17244,7 +17244,7 @@
         <v>955</v>
       </c>
       <c r="G409" s="17" t="s">
-        <v>1233</v>
+        <v>1206</v>
       </c>
       <c r="H409" s="16" t="s">
         <v>834</v>
@@ -17270,7 +17270,7 @@
         <v>955</v>
       </c>
       <c r="G410" s="17" t="s">
-        <v>1234</v>
+        <v>1207</v>
       </c>
       <c r="H410" s="16" t="s">
         <v>835</v>
@@ -17296,7 +17296,7 @@
         <v>955</v>
       </c>
       <c r="G411" s="17" t="s">
-        <v>1235</v>
+        <v>1208</v>
       </c>
       <c r="H411" s="16" t="s">
         <v>835</v>
@@ -17322,10 +17322,10 @@
         <v>955</v>
       </c>
       <c r="G412" s="17" t="s">
-        <v>1236</v>
+        <v>1209</v>
       </c>
       <c r="H412" s="16" t="s">
-        <v>1364</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="20" customHeight="1">
@@ -17348,7 +17348,7 @@
         <v>955</v>
       </c>
       <c r="G413" s="17" t="s">
-        <v>1237</v>
+        <v>1210</v>
       </c>
       <c r="H413" s="16" t="s">
         <v>835</v>
@@ -17374,7 +17374,7 @@
         <v>955</v>
       </c>
       <c r="G414" s="17" t="s">
-        <v>1238</v>
+        <v>1211</v>
       </c>
       <c r="H414" s="16" t="s">
         <v>837</v>
@@ -17400,7 +17400,7 @@
         <v>955</v>
       </c>
       <c r="G415" s="17" t="s">
-        <v>1239</v>
+        <v>1212</v>
       </c>
       <c r="H415" s="16" t="s">
         <v>836</v>
@@ -17426,7 +17426,7 @@
         <v>955</v>
       </c>
       <c r="G416" s="17" t="s">
-        <v>1240</v>
+        <v>1213</v>
       </c>
       <c r="H416" s="16" t="s">
         <v>837</v>
@@ -17452,7 +17452,7 @@
         <v>955</v>
       </c>
       <c r="G417" s="17" t="s">
-        <v>1241</v>
+        <v>1214</v>
       </c>
       <c r="H417" s="16" t="s">
         <v>837</v>
@@ -17478,7 +17478,7 @@
         <v>955</v>
       </c>
       <c r="G418" s="17" t="s">
-        <v>1242</v>
+        <v>1215</v>
       </c>
       <c r="H418" s="16" t="s">
         <v>839</v>
@@ -17504,7 +17504,7 @@
         <v>955</v>
       </c>
       <c r="G419" s="17" t="s">
-        <v>1243</v>
+        <v>1366</v>
       </c>
       <c r="H419" s="16" t="s">
         <v>838</v>
@@ -17530,7 +17530,7 @@
         <v>955</v>
       </c>
       <c r="G420" s="17" t="s">
-        <v>1244</v>
+        <v>1216</v>
       </c>
       <c r="H420" s="16" t="s">
         <v>838</v>
@@ -17556,7 +17556,7 @@
         <v>955</v>
       </c>
       <c r="G421" s="17" t="s">
-        <v>1245</v>
+        <v>1217</v>
       </c>
       <c r="H421" s="16" t="s">
         <v>839</v>
@@ -17582,7 +17582,7 @@
         <v>955</v>
       </c>
       <c r="G422" s="17" t="s">
-        <v>1246</v>
+        <v>1218</v>
       </c>
       <c r="H422" s="16" t="s">
         <v>840</v>
@@ -17608,7 +17608,7 @@
         <v>955</v>
       </c>
       <c r="G423" s="17" t="s">
-        <v>1247</v>
+        <v>1219</v>
       </c>
       <c r="H423" s="16" t="s">
         <v>840</v>
@@ -17634,10 +17634,10 @@
         <v>955</v>
       </c>
       <c r="G424" s="17" t="s">
-        <v>1248</v>
+        <v>1220</v>
       </c>
       <c r="H424" s="16" t="s">
-        <v>1365</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="20" customHeight="1">
@@ -17660,7 +17660,7 @@
         <v>955</v>
       </c>
       <c r="G425" s="17" t="s">
-        <v>1249</v>
+        <v>1221</v>
       </c>
       <c r="H425" s="16" t="s">
         <v>840</v>
@@ -17686,7 +17686,7 @@
         <v>955</v>
       </c>
       <c r="G426" s="17" t="s">
-        <v>1250</v>
+        <v>1222</v>
       </c>
       <c r="H426" s="16" t="s">
         <v>842</v>
@@ -17712,7 +17712,7 @@
         <v>955</v>
       </c>
       <c r="G427" s="17" t="s">
-        <v>1251</v>
+        <v>1223</v>
       </c>
       <c r="H427" s="16" t="s">
         <v>841</v>
@@ -17738,7 +17738,7 @@
         <v>955</v>
       </c>
       <c r="G428" s="17" t="s">
-        <v>1252</v>
+        <v>1224</v>
       </c>
       <c r="H428" s="16" t="s">
         <v>842</v>
@@ -17764,7 +17764,7 @@
         <v>955</v>
       </c>
       <c r="G429" s="17" t="s">
-        <v>1253</v>
+        <v>1225</v>
       </c>
       <c r="H429" s="16" t="s">
         <v>842</v>
@@ -17790,7 +17790,7 @@
         <v>955</v>
       </c>
       <c r="G430" s="17" t="s">
-        <v>1254</v>
+        <v>1226</v>
       </c>
       <c r="H430" s="16" t="s">
         <v>844</v>
@@ -17816,7 +17816,7 @@
         <v>955</v>
       </c>
       <c r="G431" s="17" t="s">
-        <v>1255</v>
+        <v>1227</v>
       </c>
       <c r="H431" s="16" t="s">
         <v>843</v>
@@ -17842,7 +17842,7 @@
         <v>955</v>
       </c>
       <c r="G432" s="17" t="s">
-        <v>1256</v>
+        <v>1228</v>
       </c>
       <c r="H432" s="16" t="s">
         <v>843</v>
@@ -17868,7 +17868,7 @@
         <v>955</v>
       </c>
       <c r="G433" s="17" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="H433" s="16" t="s">
         <v>844</v>
@@ -17894,7 +17894,7 @@
         <v>955</v>
       </c>
       <c r="G434" s="17" t="s">
-        <v>1258</v>
+        <v>1230</v>
       </c>
       <c r="H434" s="16" t="s">
         <v>845</v>
@@ -17920,7 +17920,7 @@
         <v>955</v>
       </c>
       <c r="G435" s="17" t="s">
-        <v>1259</v>
+        <v>1367</v>
       </c>
       <c r="H435" s="16" t="s">
         <v>845</v>
@@ -17946,10 +17946,10 @@
         <v>955</v>
       </c>
       <c r="G436" s="17" t="s">
-        <v>1260</v>
+        <v>1231</v>
       </c>
       <c r="H436" s="16" t="s">
-        <v>1366</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="20" customHeight="1">
@@ -17972,7 +17972,7 @@
         <v>955</v>
       </c>
       <c r="G437" s="17" t="s">
-        <v>1261</v>
+        <v>1232</v>
       </c>
       <c r="H437" s="16" t="s">
         <v>845</v>
@@ -17998,7 +17998,7 @@
         <v>955</v>
       </c>
       <c r="G438" s="17" t="s">
-        <v>1262</v>
+        <v>1233</v>
       </c>
       <c r="H438" s="16" t="s">
         <v>847</v>
@@ -18024,7 +18024,7 @@
         <v>955</v>
       </c>
       <c r="G439" s="17" t="s">
-        <v>1263</v>
+        <v>1234</v>
       </c>
       <c r="H439" s="16" t="s">
         <v>846</v>
@@ -18050,7 +18050,7 @@
         <v>955</v>
       </c>
       <c r="G440" s="17" t="s">
-        <v>1264</v>
+        <v>1235</v>
       </c>
       <c r="H440" s="16" t="s">
         <v>847</v>
@@ -18076,7 +18076,7 @@
         <v>955</v>
       </c>
       <c r="G441" s="17" t="s">
-        <v>1265</v>
+        <v>1236</v>
       </c>
       <c r="H441" s="16" t="s">
         <v>847</v>
@@ -18102,7 +18102,7 @@
         <v>955</v>
       </c>
       <c r="G442" s="17" t="s">
-        <v>1266</v>
+        <v>1237</v>
       </c>
       <c r="H442" s="16" t="s">
         <v>849</v>
@@ -18128,7 +18128,7 @@
         <v>956</v>
       </c>
       <c r="G443" s="17" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="H443" s="16" t="s">
         <v>848</v>
@@ -18154,7 +18154,7 @@
         <v>956</v>
       </c>
       <c r="G444" s="17" t="s">
-        <v>1268</v>
+        <v>1239</v>
       </c>
       <c r="H444" s="16" t="s">
         <v>848</v>
@@ -18180,7 +18180,7 @@
         <v>956</v>
       </c>
       <c r="G445" s="17" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
       <c r="H445" s="16" t="s">
         <v>849</v>
@@ -18206,7 +18206,7 @@
         <v>956</v>
       </c>
       <c r="G446" s="17" t="s">
-        <v>1270</v>
+        <v>1241</v>
       </c>
       <c r="H446" s="16" t="s">
         <v>850</v>
@@ -18232,7 +18232,7 @@
         <v>956</v>
       </c>
       <c r="G447" s="17" t="s">
-        <v>1271</v>
+        <v>1242</v>
       </c>
       <c r="H447" s="16" t="s">
         <v>850</v>
@@ -18258,10 +18258,10 @@
         <v>956</v>
       </c>
       <c r="G448" s="17" t="s">
-        <v>1272</v>
+        <v>1243</v>
       </c>
       <c r="H448" s="16" t="s">
-        <v>1367</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="20" customHeight="1">
@@ -18284,7 +18284,7 @@
         <v>956</v>
       </c>
       <c r="G449" s="17" t="s">
-        <v>1273</v>
+        <v>1244</v>
       </c>
       <c r="H449" s="16" t="s">
         <v>850</v>
@@ -18310,7 +18310,7 @@
         <v>956</v>
       </c>
       <c r="G450" s="17" t="s">
-        <v>1274</v>
+        <v>1245</v>
       </c>
       <c r="H450" s="16" t="s">
         <v>852</v>
@@ -18336,7 +18336,7 @@
         <v>956</v>
       </c>
       <c r="G451" s="17" t="s">
-        <v>1275</v>
+        <v>1246</v>
       </c>
       <c r="H451" s="16" t="s">
         <v>851</v>
@@ -18362,7 +18362,7 @@
         <v>956</v>
       </c>
       <c r="G452" s="17" t="s">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="H452" s="16" t="s">
         <v>852</v>
@@ -18388,7 +18388,7 @@
         <v>956</v>
       </c>
       <c r="G453" s="17" t="s">
-        <v>1277</v>
+        <v>1248</v>
       </c>
       <c r="H453" s="16" t="s">
         <v>852</v>
@@ -18414,7 +18414,7 @@
         <v>956</v>
       </c>
       <c r="G454" s="17" t="s">
-        <v>1278</v>
+        <v>1249</v>
       </c>
       <c r="H454" s="16" t="s">
         <v>854</v>
@@ -18440,7 +18440,7 @@
         <v>956</v>
       </c>
       <c r="G455" s="17" t="s">
-        <v>1279</v>
+        <v>1368</v>
       </c>
       <c r="H455" s="16" t="s">
         <v>853</v>
@@ -18466,7 +18466,7 @@
         <v>956</v>
       </c>
       <c r="G456" s="17" t="s">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="H456" s="16" t="s">
         <v>853</v>
@@ -18492,7 +18492,7 @@
         <v>956</v>
       </c>
       <c r="G457" s="17" t="s">
-        <v>1281</v>
+        <v>1251</v>
       </c>
       <c r="H457" s="16" t="s">
         <v>854</v>
@@ -18518,7 +18518,7 @@
         <v>956</v>
       </c>
       <c r="G458" s="17" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
       <c r="H458" s="16" t="s">
         <v>855</v>
@@ -18544,7 +18544,7 @@
         <v>956</v>
       </c>
       <c r="G459" s="17" t="s">
-        <v>1283</v>
+        <v>1369</v>
       </c>
       <c r="H459" s="16" t="s">
         <v>855</v>
@@ -18570,10 +18570,10 @@
         <v>956</v>
       </c>
       <c r="G460" s="17" t="s">
-        <v>1284</v>
+        <v>1253</v>
       </c>
       <c r="H460" s="16" t="s">
-        <v>1368</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="461" spans="1:8" ht="20" customHeight="1">
@@ -18596,7 +18596,7 @@
         <v>956</v>
       </c>
       <c r="G461" s="17" t="s">
-        <v>1285</v>
+        <v>1254</v>
       </c>
       <c r="H461" s="16" t="s">
         <v>855</v>
@@ -18622,7 +18622,7 @@
         <v>956</v>
       </c>
       <c r="G462" s="17" t="s">
-        <v>1286</v>
+        <v>1255</v>
       </c>
       <c r="H462" s="16" t="s">
         <v>857</v>
@@ -18648,7 +18648,7 @@
         <v>956</v>
       </c>
       <c r="G463" s="17" t="s">
-        <v>1287</v>
+        <v>1256</v>
       </c>
       <c r="H463" s="16" t="s">
         <v>856</v>
@@ -18674,7 +18674,7 @@
         <v>956</v>
       </c>
       <c r="G464" s="17" t="s">
-        <v>1288</v>
+        <v>1257</v>
       </c>
       <c r="H464" s="16" t="s">
         <v>857</v>
@@ -18700,7 +18700,7 @@
         <v>956</v>
       </c>
       <c r="G465" s="17" t="s">
-        <v>1289</v>
+        <v>1258</v>
       </c>
       <c r="H465" s="16" t="s">
         <v>857</v>
@@ -18726,7 +18726,7 @@
         <v>956</v>
       </c>
       <c r="G466" s="17" t="s">
-        <v>1290</v>
+        <v>1259</v>
       </c>
       <c r="H466" s="16" t="s">
         <v>859</v>
@@ -18752,7 +18752,7 @@
         <v>956</v>
       </c>
       <c r="G467" s="17" t="s">
-        <v>1291</v>
+        <v>1260</v>
       </c>
       <c r="H467" s="16" t="s">
         <v>858</v>
@@ -18778,7 +18778,7 @@
         <v>956</v>
       </c>
       <c r="G468" s="17" t="s">
-        <v>1292</v>
+        <v>1261</v>
       </c>
       <c r="H468" s="16" t="s">
         <v>858</v>
@@ -18804,7 +18804,7 @@
         <v>956</v>
       </c>
       <c r="G469" s="17" t="s">
-        <v>1293</v>
+        <v>1262</v>
       </c>
       <c r="H469" s="16" t="s">
         <v>859</v>
@@ -18830,7 +18830,7 @@
         <v>956</v>
       </c>
       <c r="G470" s="17" t="s">
-        <v>1294</v>
+        <v>1263</v>
       </c>
       <c r="H470" s="16" t="s">
         <v>860</v>
@@ -18856,7 +18856,7 @@
         <v>956</v>
       </c>
       <c r="G471" s="17" t="s">
-        <v>1295</v>
+        <v>1264</v>
       </c>
       <c r="H471" s="16" t="s">
         <v>860</v>
@@ -18882,10 +18882,10 @@
         <v>956</v>
       </c>
       <c r="G472" s="17" t="s">
-        <v>1296</v>
+        <v>1265</v>
       </c>
       <c r="H472" s="16" t="s">
-        <v>1369</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="20" customHeight="1">
@@ -18908,7 +18908,7 @@
         <v>956</v>
       </c>
       <c r="G473" s="17" t="s">
-        <v>1297</v>
+        <v>1266</v>
       </c>
       <c r="H473" s="16" t="s">
         <v>860</v>
@@ -18934,7 +18934,7 @@
         <v>956</v>
       </c>
       <c r="G474" s="17" t="s">
-        <v>1298</v>
+        <v>1267</v>
       </c>
       <c r="H474" s="16" t="s">
         <v>862</v>
@@ -18960,7 +18960,7 @@
         <v>956</v>
       </c>
       <c r="G475" s="17" t="s">
-        <v>1299</v>
+        <v>1268</v>
       </c>
       <c r="H475" s="16" t="s">
         <v>861</v>
@@ -18986,7 +18986,7 @@
         <v>956</v>
       </c>
       <c r="G476" s="17" t="s">
-        <v>1300</v>
+        <v>1269</v>
       </c>
       <c r="H476" s="16" t="s">
         <v>862</v>
@@ -19012,7 +19012,7 @@
         <v>956</v>
       </c>
       <c r="G477" s="17" t="s">
-        <v>1301</v>
+        <v>1270</v>
       </c>
       <c r="H477" s="16" t="s">
         <v>862</v>
@@ -19038,7 +19038,7 @@
         <v>956</v>
       </c>
       <c r="G478" s="17" t="s">
-        <v>1302</v>
+        <v>1271</v>
       </c>
       <c r="H478" s="16" t="s">
         <v>864</v>
@@ -19064,7 +19064,7 @@
         <v>956</v>
       </c>
       <c r="G479" s="17" t="s">
-        <v>1303</v>
+        <v>1370</v>
       </c>
       <c r="H479" s="16" t="s">
         <v>863</v>
@@ -19090,7 +19090,7 @@
         <v>956</v>
       </c>
       <c r="G480" s="17" t="s">
-        <v>1304</v>
+        <v>1272</v>
       </c>
       <c r="H480" s="16" t="s">
         <v>863</v>
@@ -19116,7 +19116,7 @@
         <v>956</v>
       </c>
       <c r="G481" s="17" t="s">
-        <v>1305</v>
+        <v>1273</v>
       </c>
       <c r="H481" s="16" t="s">
         <v>864</v>
@@ -19142,7 +19142,7 @@
         <v>956</v>
       </c>
       <c r="G482" s="17" t="s">
-        <v>1306</v>
+        <v>1274</v>
       </c>
       <c r="H482" s="16" t="s">
         <v>865</v>
@@ -19168,7 +19168,7 @@
         <v>956</v>
       </c>
       <c r="G483" s="17" t="s">
-        <v>1307</v>
+        <v>1275</v>
       </c>
       <c r="H483" s="16" t="s">
         <v>865</v>
@@ -19194,10 +19194,10 @@
         <v>956</v>
       </c>
       <c r="G484" s="17" t="s">
-        <v>1308</v>
+        <v>1276</v>
       </c>
       <c r="H484" s="16" t="s">
-        <v>1370</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="485" spans="1:8" ht="20" customHeight="1">
@@ -19220,7 +19220,7 @@
         <v>956</v>
       </c>
       <c r="G485" s="17" t="s">
-        <v>1309</v>
+        <v>1277</v>
       </c>
       <c r="H485" s="16" t="s">
         <v>865</v>
@@ -19246,7 +19246,7 @@
         <v>956</v>
       </c>
       <c r="G486" s="17" t="s">
-        <v>1310</v>
+        <v>1278</v>
       </c>
       <c r="H486" s="16" t="s">
         <v>867</v>
@@ -19272,7 +19272,7 @@
         <v>956</v>
       </c>
       <c r="G487" s="17" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="H487" s="16" t="s">
         <v>866</v>
@@ -19298,7 +19298,7 @@
         <v>956</v>
       </c>
       <c r="G488" s="17" t="s">
-        <v>1312</v>
+        <v>1280</v>
       </c>
       <c r="H488" s="16" t="s">
         <v>867</v>
@@ -19324,7 +19324,7 @@
         <v>956</v>
       </c>
       <c r="G489" s="17" t="s">
-        <v>1313</v>
+        <v>1281</v>
       </c>
       <c r="H489" s="16" t="s">
         <v>867</v>
@@ -19350,7 +19350,7 @@
         <v>956</v>
       </c>
       <c r="G490" s="17" t="s">
-        <v>1314</v>
+        <v>1282</v>
       </c>
       <c r="H490" s="16" t="s">
         <v>869</v>
@@ -19376,7 +19376,7 @@
         <v>956</v>
       </c>
       <c r="G491" s="17" t="s">
-        <v>1315</v>
+        <v>1283</v>
       </c>
       <c r="H491" s="16" t="s">
         <v>868</v>
@@ -19402,7 +19402,7 @@
         <v>956</v>
       </c>
       <c r="G492" s="17" t="s">
-        <v>1316</v>
+        <v>1284</v>
       </c>
       <c r="H492" s="16" t="s">
         <v>868</v>
@@ -19428,7 +19428,7 @@
         <v>956</v>
       </c>
       <c r="G493" s="17" t="s">
-        <v>1317</v>
+        <v>1285</v>
       </c>
       <c r="H493" s="16" t="s">
         <v>869</v>
@@ -19454,7 +19454,7 @@
         <v>956</v>
       </c>
       <c r="G494" s="17" t="s">
-        <v>1318</v>
+        <v>1286</v>
       </c>
       <c r="H494" s="16" t="s">
         <v>870</v>
@@ -19480,7 +19480,7 @@
         <v>956</v>
       </c>
       <c r="G495" s="17" t="s">
-        <v>1319</v>
+        <v>1371</v>
       </c>
       <c r="H495" s="16" t="s">
         <v>870</v>
@@ -19506,10 +19506,10 @@
         <v>956</v>
       </c>
       <c r="G496" s="17" t="s">
-        <v>1320</v>
+        <v>1287</v>
       </c>
       <c r="H496" s="16" t="s">
-        <v>1371</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="497" spans="1:8" ht="20" customHeight="1">
@@ -19532,7 +19532,7 @@
         <v>956</v>
       </c>
       <c r="G497" s="17" t="s">
-        <v>1321</v>
+        <v>1288</v>
       </c>
       <c r="H497" s="16" t="s">
         <v>870</v>
@@ -19558,7 +19558,7 @@
         <v>956</v>
       </c>
       <c r="G498" s="17" t="s">
-        <v>1322</v>
+        <v>1289</v>
       </c>
       <c r="H498" s="16" t="s">
         <v>872</v>
@@ -19584,7 +19584,7 @@
         <v>956</v>
       </c>
       <c r="G499" s="17" t="s">
-        <v>1323</v>
+        <v>1290</v>
       </c>
       <c r="H499" s="16" t="s">
         <v>871</v>
@@ -19610,7 +19610,7 @@
         <v>956</v>
       </c>
       <c r="G500" s="17" t="s">
-        <v>1324</v>
+        <v>1291</v>
       </c>
       <c r="H500" s="16" t="s">
         <v>872</v>
@@ -19636,7 +19636,7 @@
         <v>956</v>
       </c>
       <c r="G501" s="17" t="s">
-        <v>1325</v>
+        <v>1292</v>
       </c>
       <c r="H501" s="16" t="s">
         <v>872</v>
@@ -19662,7 +19662,7 @@
         <v>956</v>
       </c>
       <c r="G502" s="17" t="s">
-        <v>1326</v>
+        <v>1293</v>
       </c>
       <c r="H502" s="16" t="s">
         <v>874</v>
@@ -19688,7 +19688,7 @@
         <v>956</v>
       </c>
       <c r="G503" s="17" t="s">
-        <v>1327</v>
+        <v>1294</v>
       </c>
       <c r="H503" s="16" t="s">
         <v>873</v>
@@ -19714,7 +19714,7 @@
         <v>956</v>
       </c>
       <c r="G504" s="17" t="s">
-        <v>1328</v>
+        <v>1295</v>
       </c>
       <c r="H504" s="16" t="s">
         <v>873</v>
@@ -19740,7 +19740,7 @@
         <v>956</v>
       </c>
       <c r="G505" s="17" t="s">
-        <v>1329</v>
+        <v>1296</v>
       </c>
       <c r="H505" s="16" t="s">
         <v>874</v>
